--- a/CDN.xlsx
+++ b/CDN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengjiaying/INFOCOM_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D746AE9-09C6-B14E-8B5D-71AB94F2615A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B01BDF-E840-8544-BF63-413B3DDFF16B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="460" windowWidth="28240" windowHeight="16460" xr2:uid="{8E72F94A-A293-584E-A65C-31121CF5049F}"/>
+    <workbookView xWindow="1960" yWindow="4720" windowWidth="28240" windowHeight="16460" xr2:uid="{8E72F94A-A293-584E-A65C-31121CF5049F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1885,7 +1885,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E310" sqref="E310"/>
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" ht="12">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" ht="1" customHeight="1">
       <c r="A56" t="s">
         <v>27</v>
       </c>

--- a/CDN.xlsx
+++ b/CDN.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengjiaying/INFOCOM_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B01BDF-E840-8544-BF63-413B3DDFF16B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D198CCD-2D0A-5841-847D-6CA05CFBA376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="4720" windowWidth="28240" windowHeight="16460" xr2:uid="{8E72F94A-A293-584E-A65C-31121CF5049F}"/>
+    <workbookView xWindow="1420" yWindow="460" windowWidth="22000" windowHeight="16460" xr2:uid="{8E72F94A-A293-584E-A65C-31121CF5049F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="peak" localSheetId="0">Sheet1!$A$1:$C$449</definedName>
+    <definedName name="peak" localSheetId="0">Sheet1!$A$2:$C$450</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="483">
   <si>
     <t>安徽</t>
   </si>
@@ -1514,6 +1514,18 @@
   </si>
   <si>
     <t>e07643f97b7cfdcf67005b7207f9cf26f9b3fe91be51f1f3016e1f07c82886ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peak</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1882,10 +1894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{766413B6-2061-A545-87CD-4BA32071626C}">
-  <dimension ref="A1:D449"/>
+  <dimension ref="A1:D450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1897,16 +1909,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
+        <v>481</v>
+      </c>
+      <c r="C1" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1914,10 +1923,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1925,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1936,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>331</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1947,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1958,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1969,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1980,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1991,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C9">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2002,24 +2014,21 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>337</v>
       </c>
       <c r="C11">
-        <v>34000</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2027,10 +2036,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>34000</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2038,10 +2050,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>10012500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2049,10 +2061,10 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>10012500</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2060,7 +2072,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2071,7 +2083,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>275</v>
+        <v>171</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2082,10 +2094,10 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C17">
-        <v>18500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2093,10 +2105,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2104,7 +2116,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2115,10 +2127,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C20">
-        <v>56000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2126,10 +2138,10 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C21">
-        <v>84500</v>
+        <v>56000</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2137,10 +2149,10 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>84500</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2148,10 +2160,10 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C23">
-        <v>1984500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2159,24 +2171,21 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C24">
-        <v>18000</v>
+        <v>1984500</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>286</v>
       </c>
       <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2184,10 +2193,13 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26">
-        <v>500</v>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2195,10 +2207,10 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2206,7 +2218,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2217,7 +2229,7 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2228,7 +2240,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2239,7 +2251,7 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2250,189 +2262,186 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>287</v>
+        <v>174</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>338</v>
+        <v>287</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>10</v>
       </c>
       <c r="B47" t="s">
+        <v>343</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
         <v>344</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <v>2500</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2440,10 +2449,13 @@
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C49">
         <v>0</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2451,10 +2463,10 @@
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C50">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2462,10 +2474,10 @@
         <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2473,10 +2485,10 @@
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>288</v>
+        <v>175</v>
       </c>
       <c r="C52">
-        <v>6000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2484,10 +2496,10 @@
         <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2495,43 +2507,43 @@
         <v>23</v>
       </c>
       <c r="B54" t="s">
+        <v>345</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
         <v>346</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="12">
-      <c r="A55" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" t="s">
-        <v>28</v>
-      </c>
       <c r="C55">
         <v>0</v>
       </c>
-      <c r="D55">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="1" customHeight="1">
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>27</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="D56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="1" customHeight="1">
       <c r="A57" t="s">
         <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2542,7 +2554,7 @@
         <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2553,7 +2565,7 @@
         <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2564,7 +2576,7 @@
         <v>27</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2575,7 +2587,7 @@
         <v>27</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2586,7 +2598,7 @@
         <v>27</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2597,10 +2609,10 @@
         <v>27</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C63">
-        <v>16586388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2608,10 +2620,10 @@
         <v>27</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>16586388</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2619,7 +2631,7 @@
         <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2630,10 +2642,10 @@
         <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C66">
-        <v>5938600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2641,10 +2653,10 @@
         <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>5938600</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2652,7 +2664,7 @@
         <v>27</v>
       </c>
       <c r="B68" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2663,7 +2675,7 @@
         <v>27</v>
       </c>
       <c r="B69" t="s">
-        <v>276</v>
+        <v>178</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2674,10 +2686,10 @@
         <v>27</v>
       </c>
       <c r="B70" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="C70">
-        <v>27500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2685,10 +2697,10 @@
         <v>27</v>
       </c>
       <c r="B71" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2696,10 +2708,10 @@
         <v>27</v>
       </c>
       <c r="B72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C72">
-        <v>47500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2707,10 +2719,10 @@
         <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>47500</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2718,10 +2730,10 @@
         <v>27</v>
       </c>
       <c r="B74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C74">
-        <v>72500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2729,10 +2741,10 @@
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C75">
-        <v>273200</v>
+        <v>72500</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2740,10 +2752,10 @@
         <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C76">
-        <v>925700</v>
+        <v>273200</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2751,10 +2763,10 @@
         <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>925700</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2762,10 +2774,10 @@
         <v>27</v>
       </c>
       <c r="B78" t="s">
-        <v>347</v>
+        <v>296</v>
       </c>
       <c r="C78">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2773,10 +2785,10 @@
         <v>27</v>
       </c>
       <c r="B79" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2784,7 +2796,7 @@
         <v>27</v>
       </c>
       <c r="B80" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2795,10 +2807,10 @@
         <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C81">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2806,10 +2818,10 @@
         <v>27</v>
       </c>
       <c r="B82" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2817,10 +2829,10 @@
         <v>27</v>
       </c>
       <c r="B83" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C83">
-        <v>338000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2828,10 +2840,10 @@
         <v>27</v>
       </c>
       <c r="B84" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>338000</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2839,10 +2851,10 @@
         <v>27</v>
       </c>
       <c r="B85" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C85">
-        <v>21283600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2850,10 +2862,10 @@
         <v>27</v>
       </c>
       <c r="B86" t="s">
-        <v>449</v>
+        <v>354</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>21283600</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2861,7 +2873,7 @@
         <v>27</v>
       </c>
       <c r="B87" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2869,10 +2881,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B88" t="s">
-        <v>39</v>
+        <v>450</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2883,13 +2895,10 @@
         <v>38</v>
       </c>
       <c r="B89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C89">
-        <v>3288100</v>
-      </c>
-      <c r="D89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2897,10 +2906,13 @@
         <v>38</v>
       </c>
       <c r="B90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>3288100</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2908,7 +2920,7 @@
         <v>38</v>
       </c>
       <c r="B91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2919,7 +2931,7 @@
         <v>38</v>
       </c>
       <c r="B92" t="s">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2930,10 +2942,10 @@
         <v>38</v>
       </c>
       <c r="B93" t="s">
-        <v>297</v>
+        <v>179</v>
       </c>
       <c r="C93">
-        <v>64500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2941,10 +2953,10 @@
         <v>38</v>
       </c>
       <c r="B94" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>64500</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2952,7 +2964,7 @@
         <v>38</v>
       </c>
       <c r="B95" t="s">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2963,7 +2975,7 @@
         <v>38</v>
       </c>
       <c r="B96" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2974,7 +2986,7 @@
         <v>38</v>
       </c>
       <c r="B97" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2985,7 +2997,7 @@
         <v>38</v>
       </c>
       <c r="B98" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2996,7 +3008,7 @@
         <v>38</v>
       </c>
       <c r="B99" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -3007,7 +3019,7 @@
         <v>38</v>
       </c>
       <c r="B100" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -3018,7 +3030,7 @@
         <v>38</v>
       </c>
       <c r="B101" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -3026,10 +3038,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B102" t="s">
-        <v>44</v>
+        <v>361</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -3040,7 +3052,7 @@
         <v>43</v>
       </c>
       <c r="B103" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -3051,7 +3063,7 @@
         <v>43</v>
       </c>
       <c r="B104" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -3062,7 +3074,7 @@
         <v>43</v>
       </c>
       <c r="B105" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -3073,10 +3085,10 @@
         <v>43</v>
       </c>
       <c r="B106" t="s">
-        <v>299</v>
+        <v>182</v>
       </c>
       <c r="C106">
-        <v>52500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3084,10 +3096,10 @@
         <v>43</v>
       </c>
       <c r="B107" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C107">
-        <v>325500</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3095,10 +3107,10 @@
         <v>43</v>
       </c>
       <c r="B108" t="s">
-        <v>362</v>
+        <v>300</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>325500</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3106,7 +3118,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -3117,7 +3129,7 @@
         <v>43</v>
       </c>
       <c r="B110" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -3128,21 +3140,21 @@
         <v>43</v>
       </c>
       <c r="B111" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C111">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B112" t="s">
-        <v>46</v>
+        <v>365</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3150,7 +3162,7 @@
         <v>45</v>
       </c>
       <c r="B113" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -3161,7 +3173,7 @@
         <v>45</v>
       </c>
       <c r="B114" t="s">
-        <v>183</v>
+        <v>47</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -3172,7 +3184,7 @@
         <v>45</v>
       </c>
       <c r="B115" t="s">
-        <v>366</v>
+        <v>183</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -3183,7 +3195,7 @@
         <v>45</v>
       </c>
       <c r="B116" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -3191,10 +3203,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B117" t="s">
-        <v>49</v>
+        <v>367</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -3205,7 +3217,7 @@
         <v>48</v>
       </c>
       <c r="B118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -3216,7 +3228,7 @@
         <v>48</v>
       </c>
       <c r="B119" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -3227,7 +3239,7 @@
         <v>48</v>
       </c>
       <c r="B120" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -3238,7 +3250,7 @@
         <v>48</v>
       </c>
       <c r="B121" t="s">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -3249,7 +3261,7 @@
         <v>48</v>
       </c>
       <c r="B122" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -3260,7 +3272,7 @@
         <v>48</v>
       </c>
       <c r="B123" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -3271,7 +3283,7 @@
         <v>48</v>
       </c>
       <c r="B124" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -3282,7 +3294,7 @@
         <v>48</v>
       </c>
       <c r="B125" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -3293,7 +3305,7 @@
         <v>48</v>
       </c>
       <c r="B126" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -3304,7 +3316,7 @@
         <v>48</v>
       </c>
       <c r="B127" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -3315,7 +3327,7 @@
         <v>48</v>
       </c>
       <c r="B128" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -3326,7 +3338,7 @@
         <v>48</v>
       </c>
       <c r="B129" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -3337,7 +3349,7 @@
         <v>48</v>
       </c>
       <c r="B130" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -3348,10 +3360,10 @@
         <v>48</v>
       </c>
       <c r="B131" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C131">
-        <v>9168700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3359,10 +3371,10 @@
         <v>48</v>
       </c>
       <c r="B132" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>9168700</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3370,10 +3382,10 @@
         <v>48</v>
       </c>
       <c r="B133" t="s">
-        <v>301</v>
+        <v>195</v>
       </c>
       <c r="C133">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3381,10 +3393,10 @@
         <v>48</v>
       </c>
       <c r="B134" t="s">
-        <v>368</v>
+        <v>301</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3392,10 +3404,10 @@
         <v>48</v>
       </c>
       <c r="B135" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C135">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3403,10 +3415,10 @@
         <v>48</v>
       </c>
       <c r="B136" t="s">
-        <v>451</v>
+        <v>369</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3414,7 +3426,7 @@
         <v>48</v>
       </c>
       <c r="B137" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -3422,10 +3434,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B138" t="s">
-        <v>54</v>
+        <v>452</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -3436,7 +3448,7 @@
         <v>53</v>
       </c>
       <c r="B139" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -3447,7 +3459,7 @@
         <v>53</v>
       </c>
       <c r="B140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -3458,7 +3470,7 @@
         <v>53</v>
       </c>
       <c r="B141" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -3469,7 +3481,7 @@
         <v>53</v>
       </c>
       <c r="B142" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -3480,7 +3492,7 @@
         <v>53</v>
       </c>
       <c r="B143" t="s">
-        <v>196</v>
+        <v>58</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3491,7 +3503,7 @@
         <v>53</v>
       </c>
       <c r="B144" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3502,7 +3514,7 @@
         <v>53</v>
       </c>
       <c r="B145" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3513,7 +3525,7 @@
         <v>53</v>
       </c>
       <c r="B146" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -3524,7 +3536,7 @@
         <v>53</v>
       </c>
       <c r="B147" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -3535,7 +3547,7 @@
         <v>53</v>
       </c>
       <c r="B148" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3546,7 +3558,7 @@
         <v>53</v>
       </c>
       <c r="B149" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -3557,7 +3569,7 @@
         <v>53</v>
       </c>
       <c r="B150" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -3568,7 +3580,7 @@
         <v>53</v>
       </c>
       <c r="B151" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -3579,10 +3591,10 @@
         <v>53</v>
       </c>
       <c r="B152" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C152">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3590,10 +3602,10 @@
         <v>53</v>
       </c>
       <c r="B153" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3601,7 +3613,7 @@
         <v>53</v>
       </c>
       <c r="B154" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3612,10 +3624,10 @@
         <v>53</v>
       </c>
       <c r="B155" t="s">
-        <v>302</v>
+        <v>207</v>
       </c>
       <c r="C155">
-        <v>6000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3623,10 +3635,10 @@
         <v>53</v>
       </c>
       <c r="B156" t="s">
-        <v>370</v>
+        <v>302</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3634,7 +3646,7 @@
         <v>53</v>
       </c>
       <c r="B157" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3645,7 +3657,7 @@
         <v>53</v>
       </c>
       <c r="B158" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3656,7 +3668,7 @@
         <v>53</v>
       </c>
       <c r="B159" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3667,7 +3679,7 @@
         <v>53</v>
       </c>
       <c r="B160" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3678,7 +3690,7 @@
         <v>53</v>
       </c>
       <c r="B161" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3689,7 +3701,7 @@
         <v>53</v>
       </c>
       <c r="B162" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3700,10 +3712,10 @@
         <v>53</v>
       </c>
       <c r="B163" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C163">
-        <v>11484300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3711,10 +3723,10 @@
         <v>53</v>
       </c>
       <c r="B164" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>11484300</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3722,7 +3734,7 @@
         <v>53</v>
       </c>
       <c r="B165" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3730,10 +3742,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>455</v>
+        <v>53</v>
       </c>
       <c r="B166" t="s">
-        <v>457</v>
+        <v>379</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3744,7 +3756,7 @@
         <v>455</v>
       </c>
       <c r="B167" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3755,7 +3767,7 @@
         <v>455</v>
       </c>
       <c r="B168" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3766,7 +3778,7 @@
         <v>455</v>
       </c>
       <c r="B169" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3777,7 +3789,7 @@
         <v>455</v>
       </c>
       <c r="B170" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3788,7 +3800,7 @@
         <v>455</v>
       </c>
       <c r="B171" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3799,7 +3811,7 @@
         <v>455</v>
       </c>
       <c r="B172" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3810,7 +3822,7 @@
         <v>455</v>
       </c>
       <c r="B173" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3821,7 +3833,7 @@
         <v>455</v>
       </c>
       <c r="B174" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3832,10 +3844,10 @@
         <v>455</v>
       </c>
       <c r="B175" t="s">
-        <v>466</v>
-      </c>
-      <c r="C175" t="s">
-        <v>303</v>
+        <v>465</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3843,10 +3855,10 @@
         <v>455</v>
       </c>
       <c r="B176" t="s">
-        <v>467</v>
-      </c>
-      <c r="C176">
-        <v>0</v>
+        <v>466</v>
+      </c>
+      <c r="C176" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3854,7 +3866,7 @@
         <v>455</v>
       </c>
       <c r="B177" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3865,7 +3877,7 @@
         <v>455</v>
       </c>
       <c r="B178" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -3876,7 +3888,7 @@
         <v>455</v>
       </c>
       <c r="B179" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -3884,10 +3896,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>59</v>
+        <v>455</v>
       </c>
       <c r="B180" t="s">
-        <v>60</v>
+        <v>456</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3898,7 +3910,7 @@
         <v>59</v>
       </c>
       <c r="B181" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -3909,7 +3921,7 @@
         <v>59</v>
       </c>
       <c r="B182" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -3920,7 +3932,7 @@
         <v>59</v>
       </c>
       <c r="B183" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -3931,7 +3943,7 @@
         <v>59</v>
       </c>
       <c r="B184" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -3942,7 +3954,7 @@
         <v>59</v>
       </c>
       <c r="B185" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -3953,7 +3965,7 @@
         <v>59</v>
       </c>
       <c r="B186" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -3964,7 +3976,7 @@
         <v>59</v>
       </c>
       <c r="B187" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -3975,7 +3987,7 @@
         <v>59</v>
       </c>
       <c r="B188" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -3986,7 +3998,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -3997,7 +4009,7 @@
         <v>59</v>
       </c>
       <c r="B190" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -4008,10 +4020,10 @@
         <v>59</v>
       </c>
       <c r="B191" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C191">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4019,10 +4031,10 @@
         <v>59</v>
       </c>
       <c r="B192" t="s">
-        <v>208</v>
+        <v>71</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4030,7 +4042,7 @@
         <v>59</v>
       </c>
       <c r="B193" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -4041,10 +4053,10 @@
         <v>59</v>
       </c>
       <c r="B194" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C194">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4052,10 +4064,10 @@
         <v>59</v>
       </c>
       <c r="B195" t="s">
-        <v>304</v>
+        <v>210</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4063,7 +4075,7 @@
         <v>59</v>
       </c>
       <c r="B196" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -4074,7 +4086,7 @@
         <v>59</v>
       </c>
       <c r="B197" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -4085,10 +4097,10 @@
         <v>59</v>
       </c>
       <c r="B198" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C198">
-        <v>1050050</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4096,10 +4108,10 @@
         <v>59</v>
       </c>
       <c r="B199" t="s">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="C199">
-        <v>0</v>
+        <v>1050050</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4107,7 +4119,7 @@
         <v>59</v>
       </c>
       <c r="B200" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -4118,21 +4130,21 @@
         <v>59</v>
       </c>
       <c r="B201" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C201">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B202" t="s">
-        <v>73</v>
+        <v>382</v>
       </c>
       <c r="C202">
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4140,7 +4152,7 @@
         <v>72</v>
       </c>
       <c r="B203" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -4151,7 +4163,7 @@
         <v>72</v>
       </c>
       <c r="B204" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -4162,7 +4174,7 @@
         <v>72</v>
       </c>
       <c r="B205" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -4173,7 +4185,7 @@
         <v>72</v>
       </c>
       <c r="B206" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -4184,7 +4196,7 @@
         <v>72</v>
       </c>
       <c r="B207" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -4195,7 +4207,7 @@
         <v>72</v>
       </c>
       <c r="B208" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -4206,10 +4218,10 @@
         <v>72</v>
       </c>
       <c r="B209" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C209">
-        <v>12355500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4217,10 +4229,10 @@
         <v>72</v>
       </c>
       <c r="B210" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C210">
-        <v>0</v>
+        <v>12355500</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4228,7 +4240,7 @@
         <v>72</v>
       </c>
       <c r="B211" t="s">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -4239,7 +4251,7 @@
         <v>72</v>
       </c>
       <c r="B212" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -4250,7 +4262,7 @@
         <v>72</v>
       </c>
       <c r="B213" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -4261,7 +4273,7 @@
         <v>72</v>
       </c>
       <c r="B214" t="s">
-        <v>308</v>
+        <v>213</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -4272,10 +4284,10 @@
         <v>72</v>
       </c>
       <c r="B215" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C215">
-        <v>297400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4283,10 +4295,10 @@
         <v>72</v>
       </c>
       <c r="B216" t="s">
-        <v>383</v>
+        <v>309</v>
       </c>
       <c r="C216">
-        <v>0</v>
+        <v>297400</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4294,7 +4306,7 @@
         <v>72</v>
       </c>
       <c r="B217" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -4305,7 +4317,7 @@
         <v>72</v>
       </c>
       <c r="B218" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -4316,7 +4328,7 @@
         <v>72</v>
       </c>
       <c r="B219" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -4327,7 +4339,7 @@
         <v>72</v>
       </c>
       <c r="B220" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -4338,7 +4350,7 @@
         <v>72</v>
       </c>
       <c r="B221" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -4349,7 +4361,7 @@
         <v>72</v>
       </c>
       <c r="B222" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -4357,10 +4369,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B223" t="s">
-        <v>83</v>
+        <v>389</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -4371,10 +4383,10 @@
         <v>82</v>
       </c>
       <c r="B224" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C224">
-        <v>2153900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4382,10 +4394,10 @@
         <v>82</v>
       </c>
       <c r="B225" t="s">
-        <v>214</v>
+        <v>84</v>
       </c>
       <c r="C225">
-        <v>0</v>
+        <v>2153900</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4393,7 +4405,7 @@
         <v>82</v>
       </c>
       <c r="B226" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -4404,7 +4416,7 @@
         <v>82</v>
       </c>
       <c r="B227" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -4415,7 +4427,7 @@
         <v>82</v>
       </c>
       <c r="B228" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -4426,7 +4438,7 @@
         <v>82</v>
       </c>
       <c r="B229" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -4437,10 +4449,10 @@
         <v>82</v>
       </c>
       <c r="B230" t="s">
-        <v>310</v>
+        <v>218</v>
       </c>
       <c r="C230">
-        <v>100500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4448,10 +4460,10 @@
         <v>82</v>
       </c>
       <c r="B231" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C231">
-        <v>153700</v>
+        <v>100500</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4459,10 +4471,10 @@
         <v>82</v>
       </c>
       <c r="B232" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C232">
-        <v>277300</v>
+        <v>153700</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4470,18 +4482,18 @@
         <v>82</v>
       </c>
       <c r="B233" t="s">
-        <v>390</v>
+        <v>312</v>
       </c>
       <c r="C233">
-        <v>0</v>
+        <v>277300</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B234" t="s">
-        <v>86</v>
+        <v>390</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -4492,7 +4504,7 @@
         <v>85</v>
       </c>
       <c r="B235" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -4503,7 +4515,7 @@
         <v>85</v>
       </c>
       <c r="B236" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -4514,7 +4526,7 @@
         <v>85</v>
       </c>
       <c r="B237" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -4525,10 +4537,10 @@
         <v>85</v>
       </c>
       <c r="B238" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C238">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4536,10 +4548,10 @@
         <v>85</v>
       </c>
       <c r="B239" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C239">
-        <v>14464188</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4547,10 +4559,10 @@
         <v>85</v>
       </c>
       <c r="B240" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C240">
-        <v>0</v>
+        <v>14464188</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4558,7 +4570,7 @@
         <v>85</v>
       </c>
       <c r="B241" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -4569,7 +4581,7 @@
         <v>85</v>
       </c>
       <c r="B242" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -4580,7 +4592,7 @@
         <v>85</v>
       </c>
       <c r="B243" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -4591,7 +4603,7 @@
         <v>85</v>
       </c>
       <c r="B244" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -4602,7 +4614,7 @@
         <v>85</v>
       </c>
       <c r="B245" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -4613,7 +4625,7 @@
         <v>85</v>
       </c>
       <c r="B246" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -4624,7 +4636,7 @@
         <v>85</v>
       </c>
       <c r="B247" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -4635,7 +4647,7 @@
         <v>85</v>
       </c>
       <c r="B248" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -4646,7 +4658,7 @@
         <v>85</v>
       </c>
       <c r="B249" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -4657,7 +4669,7 @@
         <v>85</v>
       </c>
       <c r="B250" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -4668,7 +4680,7 @@
         <v>85</v>
       </c>
       <c r="B251" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -4679,7 +4691,7 @@
         <v>85</v>
       </c>
       <c r="B252" t="s">
-        <v>219</v>
+        <v>103</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -4690,7 +4702,7 @@
         <v>85</v>
       </c>
       <c r="B253" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -4701,10 +4713,10 @@
         <v>85</v>
       </c>
       <c r="B254" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C254">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4712,10 +4724,10 @@
         <v>85</v>
       </c>
       <c r="B255" t="s">
-        <v>391</v>
+        <v>221</v>
       </c>
       <c r="C255">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4723,7 +4735,7 @@
         <v>85</v>
       </c>
       <c r="B256" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -4734,7 +4746,7 @@
         <v>85</v>
       </c>
       <c r="B257" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -4745,7 +4757,7 @@
         <v>85</v>
       </c>
       <c r="B258" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -4756,7 +4768,7 @@
         <v>85</v>
       </c>
       <c r="B259" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -4767,7 +4779,7 @@
         <v>85</v>
       </c>
       <c r="B260" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -4778,7 +4790,7 @@
         <v>85</v>
       </c>
       <c r="B261" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -4789,7 +4801,7 @@
         <v>85</v>
       </c>
       <c r="B262" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -4800,7 +4812,7 @@
         <v>85</v>
       </c>
       <c r="B263" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -4811,7 +4823,7 @@
         <v>85</v>
       </c>
       <c r="B264" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -4822,7 +4834,7 @@
         <v>85</v>
       </c>
       <c r="B265" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -4833,10 +4845,10 @@
         <v>85</v>
       </c>
       <c r="B266" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C266">
-        <v>17297000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4844,10 +4856,10 @@
         <v>85</v>
       </c>
       <c r="B267" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C267">
-        <v>4000</v>
+        <v>17297000</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4855,18 +4867,18 @@
         <v>85</v>
       </c>
       <c r="B268" t="s">
-        <v>453</v>
+        <v>403</v>
       </c>
       <c r="C268">
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B269" t="s">
-        <v>105</v>
+        <v>453</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -4877,7 +4889,7 @@
         <v>104</v>
       </c>
       <c r="B270" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -4888,7 +4900,7 @@
         <v>104</v>
       </c>
       <c r="B271" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -4899,10 +4911,10 @@
         <v>104</v>
       </c>
       <c r="B272" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C272">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4910,10 +4922,10 @@
         <v>104</v>
       </c>
       <c r="B273" t="s">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="C273">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4921,7 +4933,7 @@
         <v>104</v>
       </c>
       <c r="B274" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -4932,7 +4944,7 @@
         <v>104</v>
       </c>
       <c r="B275" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -4943,10 +4955,10 @@
         <v>104</v>
       </c>
       <c r="B276" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C276">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4954,10 +4966,10 @@
         <v>104</v>
       </c>
       <c r="B277" t="s">
-        <v>313</v>
+        <v>225</v>
       </c>
       <c r="C277">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4965,7 +4977,7 @@
         <v>104</v>
       </c>
       <c r="B278" t="s">
-        <v>404</v>
+        <v>313</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -4976,7 +4988,7 @@
         <v>104</v>
       </c>
       <c r="B279" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C279">
         <v>0</v>
@@ -4987,7 +4999,7 @@
         <v>104</v>
       </c>
       <c r="B280" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -4998,7 +5010,7 @@
         <v>104</v>
       </c>
       <c r="B281" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -5009,7 +5021,7 @@
         <v>104</v>
       </c>
       <c r="B282" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -5017,10 +5029,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B283" t="s">
-        <v>110</v>
+        <v>408</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -5031,7 +5043,7 @@
         <v>109</v>
       </c>
       <c r="B284" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -5042,7 +5054,7 @@
         <v>109</v>
       </c>
       <c r="B285" t="s">
-        <v>226</v>
+        <v>111</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -5053,7 +5065,7 @@
         <v>109</v>
       </c>
       <c r="B286" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -5064,7 +5076,7 @@
         <v>109</v>
       </c>
       <c r="B287" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -5075,7 +5087,7 @@
         <v>109</v>
       </c>
       <c r="B288" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -5086,7 +5098,7 @@
         <v>109</v>
       </c>
       <c r="B289" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -5097,7 +5109,7 @@
         <v>109</v>
       </c>
       <c r="B290" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -5108,10 +5120,10 @@
         <v>109</v>
       </c>
       <c r="B291" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C291">
-        <v>5202600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5119,18 +5131,18 @@
         <v>109</v>
       </c>
       <c r="B292" t="s">
-        <v>314</v>
+        <v>232</v>
       </c>
       <c r="C292">
-        <v>0</v>
+        <v>5202600</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>470</v>
+        <v>109</v>
       </c>
       <c r="B293" t="s">
-        <v>471</v>
+        <v>314</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -5141,7 +5153,7 @@
         <v>470</v>
       </c>
       <c r="B294" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -5152,7 +5164,7 @@
         <v>470</v>
       </c>
       <c r="B295" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -5163,7 +5175,7 @@
         <v>470</v>
       </c>
       <c r="B296" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -5174,7 +5186,7 @@
         <v>470</v>
       </c>
       <c r="B297" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -5185,7 +5197,7 @@
         <v>470</v>
       </c>
       <c r="B298" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C298">
         <v>0</v>
@@ -5196,7 +5208,7 @@
         <v>470</v>
       </c>
       <c r="B299" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -5207,10 +5219,10 @@
         <v>470</v>
       </c>
       <c r="B300" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C300">
-        <v>210800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5218,18 +5230,18 @@
         <v>470</v>
       </c>
       <c r="B301" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C301">
-        <v>0</v>
+        <v>210800</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>112</v>
+        <v>470</v>
       </c>
       <c r="B302" t="s">
-        <v>113</v>
+        <v>479</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -5240,7 +5252,7 @@
         <v>112</v>
       </c>
       <c r="B303" t="s">
-        <v>233</v>
+        <v>113</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -5251,7 +5263,7 @@
         <v>112</v>
       </c>
       <c r="B304" t="s">
-        <v>409</v>
+        <v>233</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -5262,7 +5274,7 @@
         <v>112</v>
       </c>
       <c r="B305" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -5270,10 +5282,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B306" t="s">
-        <v>115</v>
+        <v>410</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -5284,7 +5296,7 @@
         <v>114</v>
       </c>
       <c r="B307" t="s">
-        <v>234</v>
+        <v>115</v>
       </c>
       <c r="C307">
         <v>0</v>
@@ -5295,7 +5307,7 @@
         <v>114</v>
       </c>
       <c r="B308" t="s">
-        <v>411</v>
+        <v>234</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -5303,10 +5315,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B309" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="C309">
         <v>0</v>
@@ -5317,7 +5329,7 @@
         <v>116</v>
       </c>
       <c r="B310" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -5328,10 +5340,10 @@
         <v>116</v>
       </c>
       <c r="B311" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C311">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5339,10 +5351,10 @@
         <v>116</v>
       </c>
       <c r="B312" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C312">
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5350,7 +5362,7 @@
         <v>116</v>
       </c>
       <c r="B313" t="s">
-        <v>235</v>
+        <v>120</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -5361,7 +5373,7 @@
         <v>116</v>
       </c>
       <c r="B314" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -5372,7 +5384,7 @@
         <v>116</v>
       </c>
       <c r="B315" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -5383,7 +5395,7 @@
         <v>116</v>
       </c>
       <c r="B316" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C316">
         <v>0</v>
@@ -5394,7 +5406,7 @@
         <v>116</v>
       </c>
       <c r="B317" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -5405,7 +5417,7 @@
         <v>116</v>
       </c>
       <c r="B318" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C318">
         <v>0</v>
@@ -5416,7 +5428,7 @@
         <v>116</v>
       </c>
       <c r="B319" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C319">
         <v>0</v>
@@ -5427,7 +5439,7 @@
         <v>116</v>
       </c>
       <c r="B320" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -5438,7 +5450,7 @@
         <v>116</v>
       </c>
       <c r="B321" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -5449,7 +5461,7 @@
         <v>116</v>
       </c>
       <c r="B322" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -5460,7 +5472,7 @@
         <v>116</v>
       </c>
       <c r="B323" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C323">
         <v>0</v>
@@ -5471,10 +5483,10 @@
         <v>116</v>
       </c>
       <c r="B324" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C324">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5482,10 +5494,10 @@
         <v>116</v>
       </c>
       <c r="B325" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C325">
-        <v>12497200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5493,10 +5505,10 @@
         <v>116</v>
       </c>
       <c r="B326" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C326">
-        <v>0</v>
+        <v>12497200</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5504,7 +5516,7 @@
         <v>116</v>
       </c>
       <c r="B327" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C327">
         <v>0</v>
@@ -5515,7 +5527,7 @@
         <v>116</v>
       </c>
       <c r="B328" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C328">
         <v>0</v>
@@ -5526,7 +5538,7 @@
         <v>116</v>
       </c>
       <c r="B329" t="s">
-        <v>412</v>
+        <v>250</v>
       </c>
       <c r="C329">
         <v>0</v>
@@ -5537,7 +5549,7 @@
         <v>116</v>
       </c>
       <c r="B330" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C330">
         <v>0</v>
@@ -5548,7 +5560,7 @@
         <v>116</v>
       </c>
       <c r="B331" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C331">
         <v>0</v>
@@ -5559,7 +5571,7 @@
         <v>116</v>
       </c>
       <c r="B332" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C332">
         <v>0</v>
@@ -5570,7 +5582,7 @@
         <v>116</v>
       </c>
       <c r="B333" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C333">
         <v>0</v>
@@ -5581,7 +5593,7 @@
         <v>116</v>
       </c>
       <c r="B334" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C334">
         <v>0</v>
@@ -5592,7 +5604,7 @@
         <v>116</v>
       </c>
       <c r="B335" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C335">
         <v>0</v>
@@ -5603,7 +5615,7 @@
         <v>116</v>
       </c>
       <c r="B336" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C336">
         <v>0</v>
@@ -5614,21 +5626,21 @@
         <v>116</v>
       </c>
       <c r="B337" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C337">
-        <v>314900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>251</v>
+        <v>116</v>
       </c>
       <c r="B338" t="s">
-        <v>252</v>
+        <v>420</v>
       </c>
       <c r="C338">
-        <v>0</v>
+        <v>314900</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -5636,7 +5648,7 @@
         <v>251</v>
       </c>
       <c r="B339" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C339">
         <v>0</v>
@@ -5647,10 +5659,10 @@
         <v>251</v>
       </c>
       <c r="B340" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C340">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -5658,10 +5670,10 @@
         <v>251</v>
       </c>
       <c r="B341" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C341">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -5669,7 +5681,7 @@
         <v>251</v>
       </c>
       <c r="B342" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C342">
         <v>0</v>
@@ -5680,7 +5692,7 @@
         <v>251</v>
       </c>
       <c r="B343" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C343">
         <v>0</v>
@@ -5691,7 +5703,7 @@
         <v>251</v>
       </c>
       <c r="B344" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C344">
         <v>0</v>
@@ -5702,10 +5714,10 @@
         <v>251</v>
       </c>
       <c r="B345" t="s">
-        <v>421</v>
+        <v>258</v>
       </c>
       <c r="C345">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -5713,18 +5725,18 @@
         <v>251</v>
       </c>
       <c r="B346" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C346">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>2</v>
+        <v>251</v>
       </c>
       <c r="B347" t="s">
-        <v>3</v>
+        <v>422</v>
       </c>
       <c r="C347">
         <v>0</v>
@@ -5735,7 +5747,7 @@
         <v>2</v>
       </c>
       <c r="B348" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="C348">
         <v>0</v>
@@ -5746,7 +5758,7 @@
         <v>2</v>
       </c>
       <c r="B349" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C349">
         <v>0</v>
@@ -5757,7 +5769,7 @@
         <v>2</v>
       </c>
       <c r="B350" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C350">
         <v>0</v>
@@ -5768,7 +5780,7 @@
         <v>2</v>
       </c>
       <c r="B351" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -5779,7 +5791,7 @@
         <v>2</v>
       </c>
       <c r="B352" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -5790,7 +5802,7 @@
         <v>2</v>
       </c>
       <c r="B353" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C353">
         <v>0</v>
@@ -5801,7 +5813,7 @@
         <v>2</v>
       </c>
       <c r="B354" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C354">
         <v>0</v>
@@ -5812,7 +5824,7 @@
         <v>2</v>
       </c>
       <c r="B355" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C355">
         <v>0</v>
@@ -5823,7 +5835,7 @@
         <v>2</v>
       </c>
       <c r="B356" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C356">
         <v>0</v>
@@ -5834,7 +5846,7 @@
         <v>2</v>
       </c>
       <c r="B357" t="s">
-        <v>259</v>
+        <v>129</v>
       </c>
       <c r="C357">
         <v>0</v>
@@ -5845,7 +5857,7 @@
         <v>2</v>
       </c>
       <c r="B358" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -5856,7 +5868,7 @@
         <v>2</v>
       </c>
       <c r="B359" t="s">
-        <v>315</v>
+        <v>260</v>
       </c>
       <c r="C359">
         <v>0</v>
@@ -5867,10 +5879,10 @@
         <v>2</v>
       </c>
       <c r="B360" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C360">
-        <v>126500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -5878,10 +5890,10 @@
         <v>2</v>
       </c>
       <c r="B361" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C361">
-        <v>0</v>
+        <v>126500</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -5889,7 +5901,7 @@
         <v>2</v>
       </c>
       <c r="B362" t="s">
-        <v>423</v>
+        <v>317</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -5900,7 +5912,7 @@
         <v>2</v>
       </c>
       <c r="B363" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C363">
         <v>0</v>
@@ -5908,10 +5920,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="B364" t="s">
-        <v>131</v>
+        <v>424</v>
       </c>
       <c r="C364">
         <v>0</v>
@@ -5922,10 +5934,10 @@
         <v>130</v>
       </c>
       <c r="B365" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C365">
-        <v>8000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -5933,10 +5945,10 @@
         <v>130</v>
       </c>
       <c r="B366" t="s">
-        <v>261</v>
+        <v>132</v>
       </c>
       <c r="C366">
-        <v>3602000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -5944,10 +5956,10 @@
         <v>130</v>
       </c>
       <c r="B367" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="C367">
-        <v>321600</v>
+        <v>3602000</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -5955,10 +5967,10 @@
         <v>130</v>
       </c>
       <c r="B368" t="s">
-        <v>425</v>
+        <v>318</v>
       </c>
       <c r="C368">
-        <v>2000</v>
+        <v>321600</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -5966,10 +5978,10 @@
         <v>130</v>
       </c>
       <c r="B369" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C369">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -5977,7 +5989,7 @@
         <v>130</v>
       </c>
       <c r="B370" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="C370">
         <v>0</v>
@@ -5985,10 +5997,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B371" t="s">
-        <v>134</v>
+        <v>454</v>
       </c>
       <c r="C371">
         <v>0</v>
@@ -5999,7 +6011,7 @@
         <v>133</v>
       </c>
       <c r="B372" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C372">
         <v>0</v>
@@ -6010,7 +6022,7 @@
         <v>133</v>
       </c>
       <c r="B373" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C373">
         <v>0</v>
@@ -6021,7 +6033,7 @@
         <v>133</v>
       </c>
       <c r="B374" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C374">
         <v>0</v>
@@ -6032,7 +6044,7 @@
         <v>133</v>
       </c>
       <c r="B375" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C375">
         <v>0</v>
@@ -6043,7 +6055,7 @@
         <v>133</v>
       </c>
       <c r="B376" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C376">
         <v>0</v>
@@ -6054,7 +6066,7 @@
         <v>133</v>
       </c>
       <c r="B377" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C377">
         <v>0</v>
@@ -6065,7 +6077,7 @@
         <v>133</v>
       </c>
       <c r="B378" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C378">
         <v>0</v>
@@ -6076,7 +6088,7 @@
         <v>133</v>
       </c>
       <c r="B379" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C379">
         <v>0</v>
@@ -6087,10 +6099,10 @@
         <v>133</v>
       </c>
       <c r="B380" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C380">
-        <v>16114696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6098,10 +6110,10 @@
         <v>133</v>
       </c>
       <c r="B381" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C381">
-        <v>0</v>
+        <v>16114696</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6109,7 +6121,7 @@
         <v>133</v>
       </c>
       <c r="B382" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C382">
         <v>0</v>
@@ -6120,7 +6132,7 @@
         <v>133</v>
       </c>
       <c r="B383" t="s">
-        <v>262</v>
+        <v>145</v>
       </c>
       <c r="C383">
         <v>0</v>
@@ -6131,7 +6143,7 @@
         <v>133</v>
       </c>
       <c r="B384" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C384">
         <v>0</v>
@@ -6142,7 +6154,7 @@
         <v>133</v>
       </c>
       <c r="B385" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C385">
         <v>0</v>
@@ -6153,10 +6165,10 @@
         <v>133</v>
       </c>
       <c r="B386" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C386">
-        <v>2823000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6164,10 +6176,10 @@
         <v>133</v>
       </c>
       <c r="B387" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C387">
-        <v>0</v>
+        <v>2823000</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6175,10 +6187,10 @@
         <v>133</v>
       </c>
       <c r="B388" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C388">
-        <v>22000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6186,10 +6198,10 @@
         <v>133</v>
       </c>
       <c r="B389" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="C389">
-        <v>61500</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6197,10 +6209,10 @@
         <v>133</v>
       </c>
       <c r="B390" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C390">
-        <v>332200</v>
+        <v>61500</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -6208,10 +6220,10 @@
         <v>133</v>
       </c>
       <c r="B391" t="s">
-        <v>427</v>
+        <v>320</v>
       </c>
       <c r="C391">
-        <v>0</v>
+        <v>332200</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6219,7 +6231,7 @@
         <v>133</v>
       </c>
       <c r="B392" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C392">
         <v>0</v>
@@ -6230,7 +6242,7 @@
         <v>133</v>
       </c>
       <c r="B393" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C393">
         <v>0</v>
@@ -6241,7 +6253,7 @@
         <v>133</v>
       </c>
       <c r="B394" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C394">
         <v>0</v>
@@ -6252,21 +6264,21 @@
         <v>133</v>
       </c>
       <c r="B395" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C395">
-        <v>11586600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B396" t="s">
-        <v>147</v>
+        <v>431</v>
       </c>
       <c r="C396">
-        <v>0</v>
+        <v>11586600</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6274,7 +6286,7 @@
         <v>146</v>
       </c>
       <c r="B397" t="s">
-        <v>266</v>
+        <v>147</v>
       </c>
       <c r="C397">
         <v>0</v>
@@ -6285,7 +6297,7 @@
         <v>146</v>
       </c>
       <c r="B398" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C398">
         <v>0</v>
@@ -6296,10 +6308,10 @@
         <v>146</v>
       </c>
       <c r="B399" t="s">
-        <v>321</v>
+        <v>267</v>
       </c>
       <c r="C399">
-        <v>54300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6307,10 +6319,10 @@
         <v>146</v>
       </c>
       <c r="B400" t="s">
-        <v>432</v>
+        <v>321</v>
       </c>
       <c r="C400">
-        <v>0</v>
+        <v>54300</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6318,7 +6330,7 @@
         <v>146</v>
       </c>
       <c r="B401" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -6329,21 +6341,21 @@
         <v>146</v>
       </c>
       <c r="B402" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C402">
-        <v>11138888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B403" t="s">
-        <v>149</v>
+        <v>434</v>
       </c>
       <c r="C403">
-        <v>2000</v>
+        <v>11138888</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -6351,10 +6363,10 @@
         <v>148</v>
       </c>
       <c r="B404" t="s">
-        <v>268</v>
+        <v>149</v>
       </c>
       <c r="C404">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6362,7 +6374,7 @@
         <v>148</v>
       </c>
       <c r="B405" t="s">
-        <v>322</v>
+        <v>268</v>
       </c>
       <c r="C405">
         <v>0</v>
@@ -6373,7 +6385,7 @@
         <v>148</v>
       </c>
       <c r="B406" t="s">
-        <v>435</v>
+        <v>322</v>
       </c>
       <c r="C406">
         <v>0</v>
@@ -6384,7 +6396,7 @@
         <v>148</v>
       </c>
       <c r="B407" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C407">
         <v>0</v>
@@ -6395,21 +6407,21 @@
         <v>148</v>
       </c>
       <c r="B408" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C408">
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B409" t="s">
-        <v>151</v>
+        <v>437</v>
       </c>
       <c r="C409">
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -6417,7 +6429,7 @@
         <v>150</v>
       </c>
       <c r="B410" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C410">
         <v>0</v>
@@ -6428,7 +6440,7 @@
         <v>150</v>
       </c>
       <c r="B411" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C411">
         <v>0</v>
@@ -6439,7 +6451,7 @@
         <v>150</v>
       </c>
       <c r="B412" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C412">
         <v>0</v>
@@ -6450,7 +6462,7 @@
         <v>150</v>
       </c>
       <c r="B413" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C413">
         <v>0</v>
@@ -6461,7 +6473,7 @@
         <v>150</v>
       </c>
       <c r="B414" t="s">
-        <v>269</v>
+        <v>155</v>
       </c>
       <c r="C414">
         <v>0</v>
@@ -6472,7 +6484,7 @@
         <v>150</v>
       </c>
       <c r="B415" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C415">
         <v>0</v>
@@ -6483,10 +6495,10 @@
         <v>150</v>
       </c>
       <c r="B416" t="s">
-        <v>323</v>
+        <v>270</v>
       </c>
       <c r="C416">
-        <v>6000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -6494,10 +6506,10 @@
         <v>150</v>
       </c>
       <c r="B417" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C417">
-        <v>54000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -6505,10 +6517,10 @@
         <v>150</v>
       </c>
       <c r="B418" t="s">
-        <v>438</v>
+        <v>324</v>
       </c>
       <c r="C418">
-        <v>2000</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -6516,18 +6528,18 @@
         <v>150</v>
       </c>
       <c r="B419" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C419">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B420" t="s">
-        <v>157</v>
+        <v>439</v>
       </c>
       <c r="C420">
         <v>0</v>
@@ -6538,7 +6550,7 @@
         <v>156</v>
       </c>
       <c r="B421" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C421">
         <v>0</v>
@@ -6549,7 +6561,7 @@
         <v>156</v>
       </c>
       <c r="B422" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C422">
         <v>0</v>
@@ -6560,7 +6572,7 @@
         <v>156</v>
       </c>
       <c r="B423" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C423">
         <v>0</v>
@@ -6571,7 +6583,7 @@
         <v>156</v>
       </c>
       <c r="B424" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C424">
         <v>0</v>
@@ -6582,7 +6594,7 @@
         <v>156</v>
       </c>
       <c r="B425" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C425">
         <v>0</v>
@@ -6593,10 +6605,10 @@
         <v>156</v>
       </c>
       <c r="B426" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C426">
-        <v>6491988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -6604,10 +6616,10 @@
         <v>156</v>
       </c>
       <c r="B427" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C427">
-        <v>2000</v>
+        <v>6491988</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -6615,10 +6627,10 @@
         <v>156</v>
       </c>
       <c r="B428" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C428">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -6626,7 +6638,7 @@
         <v>156</v>
       </c>
       <c r="B429" t="s">
-        <v>271</v>
+        <v>165</v>
       </c>
       <c r="C429">
         <v>0</v>
@@ -6637,7 +6649,7 @@
         <v>156</v>
       </c>
       <c r="B430" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C430">
         <v>0</v>
@@ -6648,7 +6660,7 @@
         <v>156</v>
       </c>
       <c r="B431" t="s">
-        <v>325</v>
+        <v>272</v>
       </c>
       <c r="C431">
         <v>0</v>
@@ -6659,10 +6671,10 @@
         <v>156</v>
       </c>
       <c r="B432" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C432">
-        <v>448700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -6670,10 +6682,10 @@
         <v>156</v>
       </c>
       <c r="B433" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C433">
-        <v>569500</v>
+        <v>448700</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -6681,10 +6693,10 @@
         <v>156</v>
       </c>
       <c r="B434" t="s">
-        <v>440</v>
+        <v>327</v>
       </c>
       <c r="C434">
-        <v>0</v>
+        <v>569500</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -6692,7 +6704,7 @@
         <v>156</v>
       </c>
       <c r="B435" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C435">
         <v>0</v>
@@ -6703,10 +6715,10 @@
         <v>156</v>
       </c>
       <c r="B436" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C436">
-        <v>8103787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -6714,10 +6726,10 @@
         <v>156</v>
       </c>
       <c r="B437" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C437">
-        <v>0</v>
+        <v>8103787</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -6725,10 +6737,10 @@
         <v>156</v>
       </c>
       <c r="B438" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C438">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -6736,18 +6748,18 @@
         <v>156</v>
       </c>
       <c r="B439" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C439">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B440" t="s">
-        <v>167</v>
+        <v>445</v>
       </c>
       <c r="C440">
         <v>0</v>
@@ -6758,7 +6770,7 @@
         <v>166</v>
       </c>
       <c r="B441" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C441">
         <v>0</v>
@@ -6769,7 +6781,7 @@
         <v>166</v>
       </c>
       <c r="B442" t="s">
-        <v>273</v>
+        <v>168</v>
       </c>
       <c r="C442">
         <v>0</v>
@@ -6780,7 +6792,7 @@
         <v>166</v>
       </c>
       <c r="B443" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C443">
         <v>0</v>
@@ -6791,7 +6803,7 @@
         <v>166</v>
       </c>
       <c r="B444" t="s">
-        <v>328</v>
+        <v>274</v>
       </c>
       <c r="C444">
         <v>0</v>
@@ -6802,10 +6814,10 @@
         <v>166</v>
       </c>
       <c r="B445" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C445">
-        <v>19200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -6813,10 +6825,10 @@
         <v>166</v>
       </c>
       <c r="B446" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C446">
-        <v>357000</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -6824,10 +6836,10 @@
         <v>166</v>
       </c>
       <c r="B447" t="s">
-        <v>446</v>
+        <v>330</v>
       </c>
       <c r="C447">
-        <v>0</v>
+        <v>357000</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -6835,7 +6847,7 @@
         <v>166</v>
       </c>
       <c r="B448" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C448">
         <v>0</v>
@@ -6846,15 +6858,26 @@
         <v>166</v>
       </c>
       <c r="B449" t="s">
+        <v>447</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" t="s">
+        <v>166</v>
+      </c>
+      <c r="B450" t="s">
         <v>448</v>
       </c>
-      <c r="C449">
+      <c r="C450">
         <v>4000</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C449">
-    <sortCondition ref="A1:A449"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C450">
+    <sortCondition ref="A2:A450"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CDN.xlsx
+++ b/CDN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengjiaying/INFOCOM_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D198CCD-2D0A-5841-847D-6CA05CFBA376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3984D0A-6AF4-8644-92B1-EC3E2F9FE1FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1420" yWindow="460" windowWidth="22000" windowHeight="16460" xr2:uid="{8E72F94A-A293-584E-A65C-31121CF5049F}"/>
   </bookViews>
@@ -1533,6 +1533,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -1572,8 +1575,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1897,14 +1906,14 @@
   <dimension ref="A1:D450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="2" width="76.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1914,7 +1923,7 @@
       <c r="B1" t="s">
         <v>481</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>482</v>
       </c>
     </row>
@@ -1925,7 +1934,7 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2">
@@ -1939,7 +1948,7 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1950,7 +1959,7 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1961,7 +1970,7 @@
       <c r="B5" t="s">
         <v>331</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1972,7 +1981,7 @@
       <c r="B6" t="s">
         <v>332</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1983,7 +1992,7 @@
       <c r="B7" t="s">
         <v>333</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1994,7 +2003,7 @@
       <c r="B8" t="s">
         <v>334</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2005,7 +2014,7 @@
       <c r="B9" t="s">
         <v>335</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2016,7 +2025,7 @@
       <c r="B10" t="s">
         <v>336</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>2000</v>
       </c>
     </row>
@@ -2027,7 +2036,7 @@
       <c r="B11" t="s">
         <v>337</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2038,7 +2047,7 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>34000</v>
       </c>
       <c r="D12">
@@ -2052,7 +2061,7 @@
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2063,7 +2072,7 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>10012500</v>
       </c>
     </row>
@@ -2074,7 +2083,7 @@
       <c r="B15" t="s">
         <v>170</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2085,7 +2094,7 @@
       <c r="B16" t="s">
         <v>171</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2096,7 +2105,7 @@
       <c r="B17" t="s">
         <v>275</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2107,7 +2116,7 @@
       <c r="B18" t="s">
         <v>279</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>18500</v>
       </c>
     </row>
@@ -2118,7 +2127,7 @@
       <c r="B19" t="s">
         <v>280</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2129,7 +2138,7 @@
       <c r="B20" t="s">
         <v>281</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2140,7 +2149,7 @@
       <c r="B21" t="s">
         <v>282</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>56000</v>
       </c>
     </row>
@@ -2151,7 +2160,7 @@
       <c r="B22" t="s">
         <v>283</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>84500</v>
       </c>
     </row>
@@ -2162,7 +2171,7 @@
       <c r="B23" t="s">
         <v>284</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2173,7 +2182,7 @@
       <c r="B24" t="s">
         <v>285</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>1984500</v>
       </c>
     </row>
@@ -2184,7 +2193,7 @@
       <c r="B25" t="s">
         <v>286</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>18000</v>
       </c>
     </row>
@@ -2195,7 +2204,7 @@
       <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>0</v>
       </c>
       <c r="D26">
@@ -2209,7 +2218,7 @@
       <c r="B27" t="s">
         <v>12</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>500</v>
       </c>
     </row>
@@ -2220,7 +2229,7 @@
       <c r="B28" t="s">
         <v>13</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2231,7 +2240,7 @@
       <c r="B29" t="s">
         <v>14</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2242,7 +2251,7 @@
       <c r="B30" t="s">
         <v>15</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2253,7 +2262,7 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2264,7 +2273,7 @@
       <c r="B32" t="s">
         <v>17</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2275,7 +2284,7 @@
       <c r="B33" t="s">
         <v>18</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2286,7 +2295,7 @@
       <c r="B34" t="s">
         <v>19</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>2000</v>
       </c>
     </row>
@@ -2297,7 +2306,7 @@
       <c r="B35" t="s">
         <v>20</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2308,7 +2317,7 @@
       <c r="B36" t="s">
         <v>21</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2319,7 +2328,7 @@
       <c r="B37" t="s">
         <v>22</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2330,7 +2339,7 @@
       <c r="B38" t="s">
         <v>172</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2341,7 +2350,7 @@
       <c r="B39" t="s">
         <v>173</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2352,7 +2361,7 @@
       <c r="B40" t="s">
         <v>174</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2363,7 +2372,7 @@
       <c r="B41" t="s">
         <v>287</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2374,7 +2383,7 @@
       <c r="B42" t="s">
         <v>338</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2385,7 +2394,7 @@
       <c r="B43" t="s">
         <v>339</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2396,7 +2405,7 @@
       <c r="B44" t="s">
         <v>340</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2407,7 +2416,7 @@
       <c r="B45" t="s">
         <v>341</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2418,7 +2427,7 @@
       <c r="B46" t="s">
         <v>342</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2429,7 +2438,7 @@
       <c r="B47" t="s">
         <v>343</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2440,7 +2449,7 @@
       <c r="B48" t="s">
         <v>344</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>2500</v>
       </c>
     </row>
@@ -2451,7 +2460,7 @@
       <c r="B49" t="s">
         <v>24</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>0</v>
       </c>
       <c r="D49">
@@ -2465,7 +2474,7 @@
       <c r="B50" t="s">
         <v>25</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2476,7 +2485,7 @@
       <c r="B51" t="s">
         <v>26</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>2000</v>
       </c>
     </row>
@@ -2487,7 +2496,7 @@
       <c r="B52" t="s">
         <v>175</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2498,7 +2507,7 @@
       <c r="B53" t="s">
         <v>288</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>6000</v>
       </c>
     </row>
@@ -2509,7 +2518,7 @@
       <c r="B54" t="s">
         <v>345</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2520,7 +2529,7 @@
       <c r="B55" t="s">
         <v>346</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2531,7 +2540,7 @@
       <c r="B56" t="s">
         <v>28</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>0</v>
       </c>
       <c r="D56">
@@ -2545,7 +2554,7 @@
       <c r="B57" t="s">
         <v>29</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2556,7 +2565,7 @@
       <c r="B58" t="s">
         <v>30</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2567,7 +2576,7 @@
       <c r="B59" t="s">
         <v>31</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2578,7 +2587,7 @@
       <c r="B60" t="s">
         <v>32</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2589,7 +2598,7 @@
       <c r="B61" t="s">
         <v>33</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2600,7 +2609,7 @@
       <c r="B62" t="s">
         <v>34</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2611,7 +2620,7 @@
       <c r="B63" t="s">
         <v>35</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2622,7 +2631,7 @@
       <c r="B64" t="s">
         <v>36</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
         <v>16586388</v>
       </c>
     </row>
@@ -2633,7 +2642,7 @@
       <c r="B65" t="s">
         <v>37</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2644,7 +2653,7 @@
       <c r="B66" t="s">
         <v>169</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2655,7 +2664,7 @@
       <c r="B67" t="s">
         <v>176</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>5938600</v>
       </c>
     </row>
@@ -2666,7 +2675,7 @@
       <c r="B68" t="s">
         <v>177</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2677,7 +2686,7 @@
       <c r="B69" t="s">
         <v>178</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2688,7 +2697,7 @@
       <c r="B70" t="s">
         <v>276</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2699,7 +2708,7 @@
       <c r="B71" t="s">
         <v>289</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>27500</v>
       </c>
     </row>
@@ -2710,7 +2719,7 @@
       <c r="B72" t="s">
         <v>290</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2721,7 +2730,7 @@
       <c r="B73" t="s">
         <v>291</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <v>47500</v>
       </c>
     </row>
@@ -2732,7 +2741,7 @@
       <c r="B74" t="s">
         <v>292</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2743,7 +2752,7 @@
       <c r="B75" t="s">
         <v>293</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>72500</v>
       </c>
     </row>
@@ -2754,7 +2763,7 @@
       <c r="B76" t="s">
         <v>294</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>273200</v>
       </c>
     </row>
@@ -2765,7 +2774,7 @@
       <c r="B77" t="s">
         <v>295</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>925700</v>
       </c>
     </row>
@@ -2776,7 +2785,7 @@
       <c r="B78" t="s">
         <v>296</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2787,7 +2796,7 @@
       <c r="B79" t="s">
         <v>347</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <v>2000</v>
       </c>
     </row>
@@ -2798,7 +2807,7 @@
       <c r="B80" t="s">
         <v>348</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2809,7 +2818,7 @@
       <c r="B81" t="s">
         <v>349</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2820,7 +2829,7 @@
       <c r="B82" t="s">
         <v>350</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
         <v>4000</v>
       </c>
     </row>
@@ -2831,7 +2840,7 @@
       <c r="B83" t="s">
         <v>351</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2842,7 +2851,7 @@
       <c r="B84" t="s">
         <v>352</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
         <v>338000</v>
       </c>
     </row>
@@ -2853,7 +2862,7 @@
       <c r="B85" t="s">
         <v>353</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2864,7 +2873,7 @@
       <c r="B86" t="s">
         <v>354</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
         <v>21283600</v>
       </c>
     </row>
@@ -2875,7 +2884,7 @@
       <c r="B87" t="s">
         <v>449</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2886,7 +2895,7 @@
       <c r="B88" t="s">
         <v>450</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2897,7 +2906,7 @@
       <c r="B89" t="s">
         <v>39</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2908,7 +2917,7 @@
       <c r="B90" t="s">
         <v>40</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="1">
         <v>3288100</v>
       </c>
       <c r="D90">
@@ -2922,7 +2931,7 @@
       <c r="B91" t="s">
         <v>41</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2933,7 +2942,7 @@
       <c r="B92" t="s">
         <v>42</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2944,7 +2953,7 @@
       <c r="B93" t="s">
         <v>179</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2955,7 +2964,7 @@
       <c r="B94" t="s">
         <v>297</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="1">
         <v>64500</v>
       </c>
     </row>
@@ -2966,7 +2975,7 @@
       <c r="B95" t="s">
         <v>298</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2977,7 +2986,7 @@
       <c r="B96" t="s">
         <v>355</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2988,7 +2997,7 @@
       <c r="B97" t="s">
         <v>356</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2999,7 +3008,7 @@
       <c r="B98" t="s">
         <v>357</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3010,7 +3019,7 @@
       <c r="B99" t="s">
         <v>358</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3021,7 +3030,7 @@
       <c r="B100" t="s">
         <v>359</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3032,7 +3041,7 @@
       <c r="B101" t="s">
         <v>360</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3043,7 +3052,7 @@
       <c r="B102" t="s">
         <v>361</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3054,7 +3063,7 @@
       <c r="B103" t="s">
         <v>44</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3065,7 +3074,7 @@
       <c r="B104" t="s">
         <v>180</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3076,7 +3085,7 @@
       <c r="B105" t="s">
         <v>181</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3087,7 +3096,7 @@
       <c r="B106" t="s">
         <v>182</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3098,7 +3107,7 @@
       <c r="B107" t="s">
         <v>299</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="1">
         <v>52500</v>
       </c>
     </row>
@@ -3109,7 +3118,7 @@
       <c r="B108" t="s">
         <v>300</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="1">
         <v>325500</v>
       </c>
     </row>
@@ -3120,7 +3129,7 @@
       <c r="B109" t="s">
         <v>362</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3131,7 +3140,7 @@
       <c r="B110" t="s">
         <v>363</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3142,7 +3151,7 @@
       <c r="B111" t="s">
         <v>364</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3153,7 +3162,7 @@
       <c r="B112" t="s">
         <v>365</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="1">
         <v>2000</v>
       </c>
     </row>
@@ -3164,7 +3173,7 @@
       <c r="B113" t="s">
         <v>46</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3175,7 +3184,7 @@
       <c r="B114" t="s">
         <v>47</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3186,7 +3195,7 @@
       <c r="B115" t="s">
         <v>183</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3197,7 +3206,7 @@
       <c r="B116" t="s">
         <v>366</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3208,7 +3217,7 @@
       <c r="B117" t="s">
         <v>367</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3219,7 +3228,7 @@
       <c r="B118" t="s">
         <v>49</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3230,7 +3239,7 @@
       <c r="B119" t="s">
         <v>50</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3241,7 +3250,7 @@
       <c r="B120" t="s">
         <v>51</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3252,7 +3261,7 @@
       <c r="B121" t="s">
         <v>52</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3263,7 +3272,7 @@
       <c r="B122" t="s">
         <v>184</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3274,7 +3283,7 @@
       <c r="B123" t="s">
         <v>185</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3285,7 +3294,7 @@
       <c r="B124" t="s">
         <v>186</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3296,7 +3305,7 @@
       <c r="B125" t="s">
         <v>187</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3307,7 +3316,7 @@
       <c r="B126" t="s">
         <v>188</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3318,7 +3327,7 @@
       <c r="B127" t="s">
         <v>189</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3329,7 +3338,7 @@
       <c r="B128" t="s">
         <v>190</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3340,7 +3349,7 @@
       <c r="B129" t="s">
         <v>191</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3351,7 +3360,7 @@
       <c r="B130" t="s">
         <v>192</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3362,7 +3371,7 @@
       <c r="B131" t="s">
         <v>193</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3373,7 +3382,7 @@
       <c r="B132" t="s">
         <v>194</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="1">
         <v>9168700</v>
       </c>
     </row>
@@ -3384,7 +3393,7 @@
       <c r="B133" t="s">
         <v>195</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3395,7 +3404,7 @@
       <c r="B134" t="s">
         <v>301</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="1">
         <v>2000</v>
       </c>
     </row>
@@ -3406,7 +3415,7 @@
       <c r="B135" t="s">
         <v>368</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3417,7 +3426,7 @@
       <c r="B136" t="s">
         <v>369</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="1">
         <v>4000</v>
       </c>
     </row>
@@ -3428,7 +3437,7 @@
       <c r="B137" t="s">
         <v>451</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3439,7 +3448,7 @@
       <c r="B138" t="s">
         <v>452</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3450,7 +3459,7 @@
       <c r="B139" t="s">
         <v>54</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3461,7 +3470,7 @@
       <c r="B140" t="s">
         <v>55</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3472,7 +3481,7 @@
       <c r="B141" t="s">
         <v>56</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3483,7 +3492,7 @@
       <c r="B142" t="s">
         <v>57</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3494,7 +3503,7 @@
       <c r="B143" t="s">
         <v>58</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3505,7 +3514,7 @@
       <c r="B144" t="s">
         <v>196</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3516,7 +3525,7 @@
       <c r="B145" t="s">
         <v>197</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3527,7 +3536,7 @@
       <c r="B146" t="s">
         <v>198</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3538,7 +3547,7 @@
       <c r="B147" t="s">
         <v>199</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3549,7 +3558,7 @@
       <c r="B148" t="s">
         <v>200</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3560,7 +3569,7 @@
       <c r="B149" t="s">
         <v>201</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3571,7 +3580,7 @@
       <c r="B150" t="s">
         <v>202</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3582,7 +3591,7 @@
       <c r="B151" t="s">
         <v>203</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3593,7 +3602,7 @@
       <c r="B152" t="s">
         <v>204</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3604,7 +3613,7 @@
       <c r="B153" t="s">
         <v>205</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="1">
         <v>2000</v>
       </c>
     </row>
@@ -3615,7 +3624,7 @@
       <c r="B154" t="s">
         <v>206</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3626,7 +3635,7 @@
       <c r="B155" t="s">
         <v>207</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3637,7 +3646,7 @@
       <c r="B156" t="s">
         <v>302</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="1">
         <v>6000</v>
       </c>
     </row>
@@ -3648,7 +3657,7 @@
       <c r="B157" t="s">
         <v>370</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3659,7 +3668,7 @@
       <c r="B158" t="s">
         <v>371</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3670,7 +3679,7 @@
       <c r="B159" t="s">
         <v>372</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3681,7 +3690,7 @@
       <c r="B160" t="s">
         <v>373</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3692,7 +3701,7 @@
       <c r="B161" t="s">
         <v>374</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3703,7 +3712,7 @@
       <c r="B162" t="s">
         <v>375</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3714,7 +3723,7 @@
       <c r="B163" t="s">
         <v>376</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3725,7 +3734,7 @@
       <c r="B164" t="s">
         <v>377</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="1">
         <v>11484300</v>
       </c>
     </row>
@@ -3736,7 +3745,7 @@
       <c r="B165" t="s">
         <v>378</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3747,7 +3756,7 @@
       <c r="B166" t="s">
         <v>379</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3758,7 +3767,7 @@
       <c r="B167" t="s">
         <v>457</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3769,7 +3778,7 @@
       <c r="B168" t="s">
         <v>458</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3780,7 +3789,7 @@
       <c r="B169" t="s">
         <v>459</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3791,7 +3800,7 @@
       <c r="B170" t="s">
         <v>460</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3802,7 +3811,7 @@
       <c r="B171" t="s">
         <v>461</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3813,7 +3822,7 @@
       <c r="B172" t="s">
         <v>462</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3824,7 +3833,7 @@
       <c r="B173" t="s">
         <v>463</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3835,7 +3844,7 @@
       <c r="B174" t="s">
         <v>464</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3846,7 +3855,7 @@
       <c r="B175" t="s">
         <v>465</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3857,7 +3866,7 @@
       <c r="B176" t="s">
         <v>466</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="1" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3868,7 +3877,7 @@
       <c r="B177" t="s">
         <v>467</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3879,7 +3888,7 @@
       <c r="B178" t="s">
         <v>468</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3890,7 +3899,7 @@
       <c r="B179" t="s">
         <v>469</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3901,7 +3910,7 @@
       <c r="B180" t="s">
         <v>456</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3912,7 +3921,7 @@
       <c r="B181" t="s">
         <v>60</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3923,7 +3932,7 @@
       <c r="B182" t="s">
         <v>61</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3934,7 +3943,7 @@
       <c r="B183" t="s">
         <v>62</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3945,7 +3954,7 @@
       <c r="B184" t="s">
         <v>63</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3956,7 +3965,7 @@
       <c r="B185" t="s">
         <v>64</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3967,7 +3976,7 @@
       <c r="B186" t="s">
         <v>65</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3978,7 +3987,7 @@
       <c r="B187" t="s">
         <v>66</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3989,7 +3998,7 @@
       <c r="B188" t="s">
         <v>67</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4000,7 +4009,7 @@
       <c r="B189" t="s">
         <v>68</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4011,7 +4020,7 @@
       <c r="B190" t="s">
         <v>69</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4022,7 +4031,7 @@
       <c r="B191" t="s">
         <v>70</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4033,7 +4042,7 @@
       <c r="B192" t="s">
         <v>71</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="1">
         <v>2000</v>
       </c>
     </row>
@@ -4044,7 +4053,7 @@
       <c r="B193" t="s">
         <v>208</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4055,7 +4064,7 @@
       <c r="B194" t="s">
         <v>209</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4066,7 +4075,7 @@
       <c r="B195" t="s">
         <v>210</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="1">
         <v>2000</v>
       </c>
     </row>
@@ -4077,7 +4086,7 @@
       <c r="B196" t="s">
         <v>304</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4088,7 +4097,7 @@
       <c r="B197" t="s">
         <v>305</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4099,7 +4108,7 @@
       <c r="B198" t="s">
         <v>306</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4110,7 +4119,7 @@
       <c r="B199" t="s">
         <v>307</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="1">
         <v>1050050</v>
       </c>
     </row>
@@ -4121,7 +4130,7 @@
       <c r="B200" t="s">
         <v>380</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4132,7 +4141,7 @@
       <c r="B201" t="s">
         <v>381</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4143,7 +4152,7 @@
       <c r="B202" t="s">
         <v>382</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="1">
         <v>4000</v>
       </c>
     </row>
@@ -4154,7 +4163,7 @@
       <c r="B203" t="s">
         <v>73</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4165,7 +4174,7 @@
       <c r="B204" t="s">
         <v>74</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4176,7 +4185,7 @@
       <c r="B205" t="s">
         <v>75</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4187,7 +4196,7 @@
       <c r="B206" t="s">
         <v>76</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4198,7 +4207,7 @@
       <c r="B207" t="s">
         <v>77</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4209,7 +4218,7 @@
       <c r="B208" t="s">
         <v>78</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4220,7 +4229,7 @@
       <c r="B209" t="s">
         <v>79</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4231,7 +4240,7 @@
       <c r="B210" t="s">
         <v>80</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="1">
         <v>12355500</v>
       </c>
     </row>
@@ -4242,7 +4251,7 @@
       <c r="B211" t="s">
         <v>81</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4253,7 +4262,7 @@
       <c r="B212" t="s">
         <v>211</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4264,7 +4273,7 @@
       <c r="B213" t="s">
         <v>212</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4275,7 +4284,7 @@
       <c r="B214" t="s">
         <v>213</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4286,7 +4295,7 @@
       <c r="B215" t="s">
         <v>308</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4297,7 +4306,7 @@
       <c r="B216" t="s">
         <v>309</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="1">
         <v>297400</v>
       </c>
     </row>
@@ -4308,7 +4317,7 @@
       <c r="B217" t="s">
         <v>383</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4319,7 +4328,7 @@
       <c r="B218" t="s">
         <v>384</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4330,7 +4339,7 @@
       <c r="B219" t="s">
         <v>385</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4341,7 +4350,7 @@
       <c r="B220" t="s">
         <v>386</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4352,7 +4361,7 @@
       <c r="B221" t="s">
         <v>387</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4363,7 +4372,7 @@
       <c r="B222" t="s">
         <v>388</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4374,7 +4383,7 @@
       <c r="B223" t="s">
         <v>389</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4385,7 +4394,7 @@
       <c r="B224" t="s">
         <v>83</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4396,7 +4405,7 @@
       <c r="B225" t="s">
         <v>84</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="1">
         <v>2153900</v>
       </c>
     </row>
@@ -4407,7 +4416,7 @@
       <c r="B226" t="s">
         <v>214</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4418,7 +4427,7 @@
       <c r="B227" t="s">
         <v>215</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4429,7 +4438,7 @@
       <c r="B228" t="s">
         <v>216</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4440,7 +4449,7 @@
       <c r="B229" t="s">
         <v>217</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4451,7 +4460,7 @@
       <c r="B230" t="s">
         <v>218</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4462,7 +4471,7 @@
       <c r="B231" t="s">
         <v>310</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="1">
         <v>100500</v>
       </c>
     </row>
@@ -4473,7 +4482,7 @@
       <c r="B232" t="s">
         <v>311</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="1">
         <v>153700</v>
       </c>
     </row>
@@ -4484,7 +4493,7 @@
       <c r="B233" t="s">
         <v>312</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="1">
         <v>277300</v>
       </c>
     </row>
@@ -4495,7 +4504,7 @@
       <c r="B234" t="s">
         <v>390</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4506,7 +4515,7 @@
       <c r="B235" t="s">
         <v>86</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4517,7 +4526,7 @@
       <c r="B236" t="s">
         <v>87</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4528,7 +4537,7 @@
       <c r="B237" t="s">
         <v>88</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4539,7 +4548,7 @@
       <c r="B238" t="s">
         <v>89</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4550,7 +4559,7 @@
       <c r="B239" t="s">
         <v>90</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="1">
         <v>2000</v>
       </c>
     </row>
@@ -4561,7 +4570,7 @@
       <c r="B240" t="s">
         <v>91</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="1">
         <v>14464188</v>
       </c>
     </row>
@@ -4572,7 +4581,7 @@
       <c r="B241" t="s">
         <v>92</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4583,7 +4592,7 @@
       <c r="B242" t="s">
         <v>93</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4594,7 +4603,7 @@
       <c r="B243" t="s">
         <v>94</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4605,7 +4614,7 @@
       <c r="B244" t="s">
         <v>95</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4616,7 +4625,7 @@
       <c r="B245" t="s">
         <v>96</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4627,7 +4636,7 @@
       <c r="B246" t="s">
         <v>97</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4638,7 +4647,7 @@
       <c r="B247" t="s">
         <v>98</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4649,7 +4658,7 @@
       <c r="B248" t="s">
         <v>99</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4660,7 +4669,7 @@
       <c r="B249" t="s">
         <v>100</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4671,7 +4680,7 @@
       <c r="B250" t="s">
         <v>101</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4682,7 +4691,7 @@
       <c r="B251" t="s">
         <v>102</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4693,7 +4702,7 @@
       <c r="B252" t="s">
         <v>103</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4704,7 +4713,7 @@
       <c r="B253" t="s">
         <v>219</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4715,7 +4724,7 @@
       <c r="B254" t="s">
         <v>220</v>
       </c>
-      <c r="C254">
+      <c r="C254" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4726,7 +4735,7 @@
       <c r="B255" t="s">
         <v>221</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="1">
         <v>2000</v>
       </c>
     </row>
@@ -4737,7 +4746,7 @@
       <c r="B256" t="s">
         <v>391</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4748,7 +4757,7 @@
       <c r="B257" t="s">
         <v>392</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4759,7 +4768,7 @@
       <c r="B258" t="s">
         <v>393</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4770,7 +4779,7 @@
       <c r="B259" t="s">
         <v>394</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4781,7 +4790,7 @@
       <c r="B260" t="s">
         <v>395</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4792,7 +4801,7 @@
       <c r="B261" t="s">
         <v>396</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4803,7 +4812,7 @@
       <c r="B262" t="s">
         <v>397</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4814,7 +4823,7 @@
       <c r="B263" t="s">
         <v>398</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4825,7 +4834,7 @@
       <c r="B264" t="s">
         <v>399</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4836,7 +4845,7 @@
       <c r="B265" t="s">
         <v>400</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4847,7 +4856,7 @@
       <c r="B266" t="s">
         <v>401</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4858,7 +4867,7 @@
       <c r="B267" t="s">
         <v>402</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="1">
         <v>17297000</v>
       </c>
     </row>
@@ -4869,7 +4878,7 @@
       <c r="B268" t="s">
         <v>403</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="1">
         <v>4000</v>
       </c>
     </row>
@@ -4880,7 +4889,7 @@
       <c r="B269" t="s">
         <v>453</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4891,7 +4900,7 @@
       <c r="B270" t="s">
         <v>105</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4902,7 +4911,7 @@
       <c r="B271" t="s">
         <v>106</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4913,7 +4922,7 @@
       <c r="B272" t="s">
         <v>107</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4924,7 +4933,7 @@
       <c r="B273" t="s">
         <v>108</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="1">
         <v>2000</v>
       </c>
     </row>
@@ -4935,7 +4944,7 @@
       <c r="B274" t="s">
         <v>222</v>
       </c>
-      <c r="C274">
+      <c r="C274" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4946,7 +4955,7 @@
       <c r="B275" t="s">
         <v>223</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4957,7 +4966,7 @@
       <c r="B276" t="s">
         <v>224</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4968,7 +4977,7 @@
       <c r="B277" t="s">
         <v>225</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="1">
         <v>2000</v>
       </c>
     </row>
@@ -4979,7 +4988,7 @@
       <c r="B278" t="s">
         <v>313</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4990,7 +4999,7 @@
       <c r="B279" t="s">
         <v>404</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5001,7 +5010,7 @@
       <c r="B280" t="s">
         <v>405</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5012,7 +5021,7 @@
       <c r="B281" t="s">
         <v>406</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5023,7 +5032,7 @@
       <c r="B282" t="s">
         <v>407</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5034,7 +5043,7 @@
       <c r="B283" t="s">
         <v>408</v>
       </c>
-      <c r="C283">
+      <c r="C283" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5045,7 +5054,7 @@
       <c r="B284" t="s">
         <v>110</v>
       </c>
-      <c r="C284">
+      <c r="C284" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5056,7 +5065,7 @@
       <c r="B285" t="s">
         <v>111</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5067,7 +5076,7 @@
       <c r="B286" t="s">
         <v>226</v>
       </c>
-      <c r="C286">
+      <c r="C286" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5078,7 +5087,7 @@
       <c r="B287" t="s">
         <v>227</v>
       </c>
-      <c r="C287">
+      <c r="C287" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5089,7 +5098,7 @@
       <c r="B288" t="s">
         <v>228</v>
       </c>
-      <c r="C288">
+      <c r="C288" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5100,7 +5109,7 @@
       <c r="B289" t="s">
         <v>229</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5111,7 +5120,7 @@
       <c r="B290" t="s">
         <v>230</v>
       </c>
-      <c r="C290">
+      <c r="C290" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5122,7 +5131,7 @@
       <c r="B291" t="s">
         <v>231</v>
       </c>
-      <c r="C291">
+      <c r="C291" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5133,7 +5142,7 @@
       <c r="B292" t="s">
         <v>232</v>
       </c>
-      <c r="C292">
+      <c r="C292" s="1">
         <v>5202600</v>
       </c>
     </row>
@@ -5144,7 +5153,7 @@
       <c r="B293" t="s">
         <v>314</v>
       </c>
-      <c r="C293">
+      <c r="C293" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5155,7 +5164,7 @@
       <c r="B294" t="s">
         <v>471</v>
       </c>
-      <c r="C294">
+      <c r="C294" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5166,7 +5175,7 @@
       <c r="B295" t="s">
         <v>472</v>
       </c>
-      <c r="C295">
+      <c r="C295" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5177,7 +5186,7 @@
       <c r="B296" t="s">
         <v>473</v>
       </c>
-      <c r="C296">
+      <c r="C296" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5188,7 +5197,7 @@
       <c r="B297" t="s">
         <v>474</v>
       </c>
-      <c r="C297">
+      <c r="C297" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5199,7 +5208,7 @@
       <c r="B298" t="s">
         <v>475</v>
       </c>
-      <c r="C298">
+      <c r="C298" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5210,7 +5219,7 @@
       <c r="B299" t="s">
         <v>476</v>
       </c>
-      <c r="C299">
+      <c r="C299" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5221,7 +5230,7 @@
       <c r="B300" t="s">
         <v>477</v>
       </c>
-      <c r="C300">
+      <c r="C300" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5232,7 +5241,7 @@
       <c r="B301" t="s">
         <v>478</v>
       </c>
-      <c r="C301">
+      <c r="C301" s="1">
         <v>210800</v>
       </c>
     </row>
@@ -5243,7 +5252,7 @@
       <c r="B302" t="s">
         <v>479</v>
       </c>
-      <c r="C302">
+      <c r="C302" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5254,7 +5263,7 @@
       <c r="B303" t="s">
         <v>113</v>
       </c>
-      <c r="C303">
+      <c r="C303" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5265,7 +5274,7 @@
       <c r="B304" t="s">
         <v>233</v>
       </c>
-      <c r="C304">
+      <c r="C304" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5276,7 +5285,7 @@
       <c r="B305" t="s">
         <v>409</v>
       </c>
-      <c r="C305">
+      <c r="C305" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5287,7 +5296,7 @@
       <c r="B306" t="s">
         <v>410</v>
       </c>
-      <c r="C306">
+      <c r="C306" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5298,7 +5307,7 @@
       <c r="B307" t="s">
         <v>115</v>
       </c>
-      <c r="C307">
+      <c r="C307" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5309,7 +5318,7 @@
       <c r="B308" t="s">
         <v>234</v>
       </c>
-      <c r="C308">
+      <c r="C308" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5320,7 +5329,7 @@
       <c r="B309" t="s">
         <v>411</v>
       </c>
-      <c r="C309">
+      <c r="C309" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5331,7 +5340,7 @@
       <c r="B310" t="s">
         <v>117</v>
       </c>
-      <c r="C310">
+      <c r="C310" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5342,7 +5351,7 @@
       <c r="B311" t="s">
         <v>118</v>
       </c>
-      <c r="C311">
+      <c r="C311" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5353,7 +5362,7 @@
       <c r="B312" t="s">
         <v>119</v>
       </c>
-      <c r="C312">
+      <c r="C312" s="1">
         <v>4000</v>
       </c>
     </row>
@@ -5364,7 +5373,7 @@
       <c r="B313" t="s">
         <v>120</v>
       </c>
-      <c r="C313">
+      <c r="C313" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5375,7 +5384,7 @@
       <c r="B314" t="s">
         <v>235</v>
       </c>
-      <c r="C314">
+      <c r="C314" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5386,7 +5395,7 @@
       <c r="B315" t="s">
         <v>236</v>
       </c>
-      <c r="C315">
+      <c r="C315" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5397,7 +5406,7 @@
       <c r="B316" t="s">
         <v>237</v>
       </c>
-      <c r="C316">
+      <c r="C316" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5408,7 +5417,7 @@
       <c r="B317" t="s">
         <v>238</v>
       </c>
-      <c r="C317">
+      <c r="C317" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5419,7 +5428,7 @@
       <c r="B318" t="s">
         <v>239</v>
       </c>
-      <c r="C318">
+      <c r="C318" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5430,7 +5439,7 @@
       <c r="B319" t="s">
         <v>240</v>
       </c>
-      <c r="C319">
+      <c r="C319" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5441,7 +5450,7 @@
       <c r="B320" t="s">
         <v>241</v>
       </c>
-      <c r="C320">
+      <c r="C320" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5452,7 +5461,7 @@
       <c r="B321" t="s">
         <v>242</v>
       </c>
-      <c r="C321">
+      <c r="C321" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5463,7 +5472,7 @@
       <c r="B322" t="s">
         <v>243</v>
       </c>
-      <c r="C322">
+      <c r="C322" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5474,7 +5483,7 @@
       <c r="B323" t="s">
         <v>244</v>
       </c>
-      <c r="C323">
+      <c r="C323" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5485,7 +5494,7 @@
       <c r="B324" t="s">
         <v>245</v>
       </c>
-      <c r="C324">
+      <c r="C324" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5496,7 +5505,7 @@
       <c r="B325" t="s">
         <v>246</v>
       </c>
-      <c r="C325">
+      <c r="C325" s="1">
         <v>500</v>
       </c>
     </row>
@@ -5507,7 +5516,7 @@
       <c r="B326" t="s">
         <v>247</v>
       </c>
-      <c r="C326">
+      <c r="C326" s="1">
         <v>12497200</v>
       </c>
     </row>
@@ -5518,7 +5527,7 @@
       <c r="B327" t="s">
         <v>248</v>
       </c>
-      <c r="C327">
+      <c r="C327" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5529,7 +5538,7 @@
       <c r="B328" t="s">
         <v>249</v>
       </c>
-      <c r="C328">
+      <c r="C328" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5540,7 +5549,7 @@
       <c r="B329" t="s">
         <v>250</v>
       </c>
-      <c r="C329">
+      <c r="C329" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5551,7 +5560,7 @@
       <c r="B330" t="s">
         <v>412</v>
       </c>
-      <c r="C330">
+      <c r="C330" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5562,7 +5571,7 @@
       <c r="B331" t="s">
         <v>413</v>
       </c>
-      <c r="C331">
+      <c r="C331" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5573,7 +5582,7 @@
       <c r="B332" t="s">
         <v>414</v>
       </c>
-      <c r="C332">
+      <c r="C332" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5584,7 +5593,7 @@
       <c r="B333" t="s">
         <v>415</v>
       </c>
-      <c r="C333">
+      <c r="C333" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5595,7 +5604,7 @@
       <c r="B334" t="s">
         <v>416</v>
       </c>
-      <c r="C334">
+      <c r="C334" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5606,7 +5615,7 @@
       <c r="B335" t="s">
         <v>417</v>
       </c>
-      <c r="C335">
+      <c r="C335" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5617,7 +5626,7 @@
       <c r="B336" t="s">
         <v>418</v>
       </c>
-      <c r="C336">
+      <c r="C336" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5628,7 +5637,7 @@
       <c r="B337" t="s">
         <v>419</v>
       </c>
-      <c r="C337">
+      <c r="C337" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5639,7 +5648,7 @@
       <c r="B338" t="s">
         <v>420</v>
       </c>
-      <c r="C338">
+      <c r="C338" s="1">
         <v>314900</v>
       </c>
     </row>
@@ -5650,7 +5659,7 @@
       <c r="B339" t="s">
         <v>252</v>
       </c>
-      <c r="C339">
+      <c r="C339" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5661,7 +5670,7 @@
       <c r="B340" t="s">
         <v>253</v>
       </c>
-      <c r="C340">
+      <c r="C340" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5672,7 +5681,7 @@
       <c r="B341" t="s">
         <v>254</v>
       </c>
-      <c r="C341">
+      <c r="C341" s="1">
         <v>2000</v>
       </c>
     </row>
@@ -5683,7 +5692,7 @@
       <c r="B342" t="s">
         <v>255</v>
       </c>
-      <c r="C342">
+      <c r="C342" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5694,7 +5703,7 @@
       <c r="B343" t="s">
         <v>256</v>
       </c>
-      <c r="C343">
+      <c r="C343" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5705,7 +5714,7 @@
       <c r="B344" t="s">
         <v>257</v>
       </c>
-      <c r="C344">
+      <c r="C344" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5716,7 +5725,7 @@
       <c r="B345" t="s">
         <v>258</v>
       </c>
-      <c r="C345">
+      <c r="C345" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5727,7 +5736,7 @@
       <c r="B346" t="s">
         <v>421</v>
       </c>
-      <c r="C346">
+      <c r="C346" s="1">
         <v>2000</v>
       </c>
     </row>
@@ -5738,7 +5747,7 @@
       <c r="B347" t="s">
         <v>422</v>
       </c>
-      <c r="C347">
+      <c r="C347" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5749,7 +5758,7 @@
       <c r="B348" t="s">
         <v>3</v>
       </c>
-      <c r="C348">
+      <c r="C348" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5760,7 +5769,7 @@
       <c r="B349" t="s">
         <v>121</v>
       </c>
-      <c r="C349">
+      <c r="C349" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5771,7 +5780,7 @@
       <c r="B350" t="s">
         <v>122</v>
       </c>
-      <c r="C350">
+      <c r="C350" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5782,7 +5791,7 @@
       <c r="B351" t="s">
         <v>123</v>
       </c>
-      <c r="C351">
+      <c r="C351" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5793,7 +5802,7 @@
       <c r="B352" t="s">
         <v>124</v>
       </c>
-      <c r="C352">
+      <c r="C352" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5804,7 +5813,7 @@
       <c r="B353" t="s">
         <v>125</v>
       </c>
-      <c r="C353">
+      <c r="C353" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5815,7 +5824,7 @@
       <c r="B354" t="s">
         <v>126</v>
       </c>
-      <c r="C354">
+      <c r="C354" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5826,7 +5835,7 @@
       <c r="B355" t="s">
         <v>127</v>
       </c>
-      <c r="C355">
+      <c r="C355" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5837,7 +5846,7 @@
       <c r="B356" t="s">
         <v>128</v>
       </c>
-      <c r="C356">
+      <c r="C356" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5848,7 +5857,7 @@
       <c r="B357" t="s">
         <v>129</v>
       </c>
-      <c r="C357">
+      <c r="C357" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5859,7 +5868,7 @@
       <c r="B358" t="s">
         <v>259</v>
       </c>
-      <c r="C358">
+      <c r="C358" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5870,7 +5879,7 @@
       <c r="B359" t="s">
         <v>260</v>
       </c>
-      <c r="C359">
+      <c r="C359" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5881,7 +5890,7 @@
       <c r="B360" t="s">
         <v>315</v>
       </c>
-      <c r="C360">
+      <c r="C360" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5892,7 +5901,7 @@
       <c r="B361" t="s">
         <v>316</v>
       </c>
-      <c r="C361">
+      <c r="C361" s="1">
         <v>126500</v>
       </c>
     </row>
@@ -5903,7 +5912,7 @@
       <c r="B362" t="s">
         <v>317</v>
       </c>
-      <c r="C362">
+      <c r="C362" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5914,7 +5923,7 @@
       <c r="B363" t="s">
         <v>423</v>
       </c>
-      <c r="C363">
+      <c r="C363" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5925,7 +5934,7 @@
       <c r="B364" t="s">
         <v>424</v>
       </c>
-      <c r="C364">
+      <c r="C364" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5936,7 +5945,7 @@
       <c r="B365" t="s">
         <v>131</v>
       </c>
-      <c r="C365">
+      <c r="C365" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5947,7 +5956,7 @@
       <c r="B366" t="s">
         <v>132</v>
       </c>
-      <c r="C366">
+      <c r="C366" s="1">
         <v>8000</v>
       </c>
     </row>
@@ -5958,7 +5967,7 @@
       <c r="B367" t="s">
         <v>261</v>
       </c>
-      <c r="C367">
+      <c r="C367" s="1">
         <v>3602000</v>
       </c>
     </row>
@@ -5969,7 +5978,7 @@
       <c r="B368" t="s">
         <v>318</v>
       </c>
-      <c r="C368">
+      <c r="C368" s="1">
         <v>321600</v>
       </c>
     </row>
@@ -5980,7 +5989,7 @@
       <c r="B369" t="s">
         <v>425</v>
       </c>
-      <c r="C369">
+      <c r="C369" s="1">
         <v>2000</v>
       </c>
     </row>
@@ -5991,7 +6000,7 @@
       <c r="B370" t="s">
         <v>426</v>
       </c>
-      <c r="C370">
+      <c r="C370" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6002,7 +6011,7 @@
       <c r="B371" t="s">
         <v>454</v>
       </c>
-      <c r="C371">
+      <c r="C371" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6013,7 +6022,7 @@
       <c r="B372" t="s">
         <v>134</v>
       </c>
-      <c r="C372">
+      <c r="C372" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6024,7 +6033,7 @@
       <c r="B373" t="s">
         <v>135</v>
       </c>
-      <c r="C373">
+      <c r="C373" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6035,7 +6044,7 @@
       <c r="B374" t="s">
         <v>136</v>
       </c>
-      <c r="C374">
+      <c r="C374" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6046,7 +6055,7 @@
       <c r="B375" t="s">
         <v>137</v>
       </c>
-      <c r="C375">
+      <c r="C375" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6057,7 +6066,7 @@
       <c r="B376" t="s">
         <v>138</v>
       </c>
-      <c r="C376">
+      <c r="C376" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6068,7 +6077,7 @@
       <c r="B377" t="s">
         <v>139</v>
       </c>
-      <c r="C377">
+      <c r="C377" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6079,7 +6088,7 @@
       <c r="B378" t="s">
         <v>140</v>
       </c>
-      <c r="C378">
+      <c r="C378" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6090,7 +6099,7 @@
       <c r="B379" t="s">
         <v>141</v>
       </c>
-      <c r="C379">
+      <c r="C379" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6101,7 +6110,7 @@
       <c r="B380" t="s">
         <v>142</v>
       </c>
-      <c r="C380">
+      <c r="C380" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6112,7 +6121,7 @@
       <c r="B381" t="s">
         <v>143</v>
       </c>
-      <c r="C381">
+      <c r="C381" s="1">
         <v>16114696</v>
       </c>
     </row>
@@ -6123,7 +6132,7 @@
       <c r="B382" t="s">
         <v>144</v>
       </c>
-      <c r="C382">
+      <c r="C382" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6134,7 +6143,7 @@
       <c r="B383" t="s">
         <v>145</v>
       </c>
-      <c r="C383">
+      <c r="C383" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6145,7 +6154,7 @@
       <c r="B384" t="s">
         <v>262</v>
       </c>
-      <c r="C384">
+      <c r="C384" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6156,7 +6165,7 @@
       <c r="B385" t="s">
         <v>263</v>
       </c>
-      <c r="C385">
+      <c r="C385" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6167,7 +6176,7 @@
       <c r="B386" t="s">
         <v>264</v>
       </c>
-      <c r="C386">
+      <c r="C386" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6178,7 +6187,7 @@
       <c r="B387" t="s">
         <v>265</v>
       </c>
-      <c r="C387">
+      <c r="C387" s="1">
         <v>2823000</v>
       </c>
     </row>
@@ -6189,7 +6198,7 @@
       <c r="B388" t="s">
         <v>277</v>
       </c>
-      <c r="C388">
+      <c r="C388" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6200,7 +6209,7 @@
       <c r="B389" t="s">
         <v>278</v>
       </c>
-      <c r="C389">
+      <c r="C389" s="1">
         <v>22000</v>
       </c>
     </row>
@@ -6211,7 +6220,7 @@
       <c r="B390" t="s">
         <v>319</v>
       </c>
-      <c r="C390">
+      <c r="C390" s="1">
         <v>61500</v>
       </c>
     </row>
@@ -6222,7 +6231,7 @@
       <c r="B391" t="s">
         <v>320</v>
       </c>
-      <c r="C391">
+      <c r="C391" s="1">
         <v>332200</v>
       </c>
     </row>
@@ -6233,7 +6242,7 @@
       <c r="B392" t="s">
         <v>427</v>
       </c>
-      <c r="C392">
+      <c r="C392" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6244,7 +6253,7 @@
       <c r="B393" t="s">
         <v>428</v>
       </c>
-      <c r="C393">
+      <c r="C393" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6255,7 +6264,7 @@
       <c r="B394" t="s">
         <v>429</v>
       </c>
-      <c r="C394">
+      <c r="C394" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6266,7 +6275,7 @@
       <c r="B395" t="s">
         <v>430</v>
       </c>
-      <c r="C395">
+      <c r="C395" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6277,7 +6286,7 @@
       <c r="B396" t="s">
         <v>431</v>
       </c>
-      <c r="C396">
+      <c r="C396" s="1">
         <v>11586600</v>
       </c>
     </row>
@@ -6288,7 +6297,7 @@
       <c r="B397" t="s">
         <v>147</v>
       </c>
-      <c r="C397">
+      <c r="C397" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6299,7 +6308,7 @@
       <c r="B398" t="s">
         <v>266</v>
       </c>
-      <c r="C398">
+      <c r="C398" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6310,7 +6319,7 @@
       <c r="B399" t="s">
         <v>267</v>
       </c>
-      <c r="C399">
+      <c r="C399" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6321,7 +6330,7 @@
       <c r="B400" t="s">
         <v>321</v>
       </c>
-      <c r="C400">
+      <c r="C400" s="1">
         <v>54300</v>
       </c>
     </row>
@@ -6332,7 +6341,7 @@
       <c r="B401" t="s">
         <v>432</v>
       </c>
-      <c r="C401">
+      <c r="C401" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6343,7 +6352,7 @@
       <c r="B402" t="s">
         <v>433</v>
       </c>
-      <c r="C402">
+      <c r="C402" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6354,7 +6363,7 @@
       <c r="B403" t="s">
         <v>434</v>
       </c>
-      <c r="C403">
+      <c r="C403" s="1">
         <v>11138888</v>
       </c>
     </row>
@@ -6365,7 +6374,7 @@
       <c r="B404" t="s">
         <v>149</v>
       </c>
-      <c r="C404">
+      <c r="C404" s="1">
         <v>2000</v>
       </c>
     </row>
@@ -6376,7 +6385,7 @@
       <c r="B405" t="s">
         <v>268</v>
       </c>
-      <c r="C405">
+      <c r="C405" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6387,7 +6396,7 @@
       <c r="B406" t="s">
         <v>322</v>
       </c>
-      <c r="C406">
+      <c r="C406" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6398,7 +6407,7 @@
       <c r="B407" t="s">
         <v>435</v>
       </c>
-      <c r="C407">
+      <c r="C407" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6409,7 +6418,7 @@
       <c r="B408" t="s">
         <v>436</v>
       </c>
-      <c r="C408">
+      <c r="C408" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6420,7 +6429,7 @@
       <c r="B409" t="s">
         <v>437</v>
       </c>
-      <c r="C409">
+      <c r="C409" s="1">
         <v>2500</v>
       </c>
     </row>
@@ -6431,7 +6440,7 @@
       <c r="B410" t="s">
         <v>151</v>
       </c>
-      <c r="C410">
+      <c r="C410" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6442,7 +6451,7 @@
       <c r="B411" t="s">
         <v>152</v>
       </c>
-      <c r="C411">
+      <c r="C411" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6453,7 +6462,7 @@
       <c r="B412" t="s">
         <v>153</v>
       </c>
-      <c r="C412">
+      <c r="C412" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6464,7 +6473,7 @@
       <c r="B413" t="s">
         <v>154</v>
       </c>
-      <c r="C413">
+      <c r="C413" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6475,7 +6484,7 @@
       <c r="B414" t="s">
         <v>155</v>
       </c>
-      <c r="C414">
+      <c r="C414" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6486,7 +6495,7 @@
       <c r="B415" t="s">
         <v>269</v>
       </c>
-      <c r="C415">
+      <c r="C415" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6497,7 +6506,7 @@
       <c r="B416" t="s">
         <v>270</v>
       </c>
-      <c r="C416">
+      <c r="C416" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6508,7 +6517,7 @@
       <c r="B417" t="s">
         <v>323</v>
       </c>
-      <c r="C417">
+      <c r="C417" s="1">
         <v>6000</v>
       </c>
     </row>
@@ -6519,7 +6528,7 @@
       <c r="B418" t="s">
         <v>324</v>
       </c>
-      <c r="C418">
+      <c r="C418" s="1">
         <v>54000</v>
       </c>
     </row>
@@ -6530,7 +6539,7 @@
       <c r="B419" t="s">
         <v>438</v>
       </c>
-      <c r="C419">
+      <c r="C419" s="1">
         <v>2000</v>
       </c>
     </row>
@@ -6541,7 +6550,7 @@
       <c r="B420" t="s">
         <v>439</v>
       </c>
-      <c r="C420">
+      <c r="C420" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6552,7 +6561,7 @@
       <c r="B421" t="s">
         <v>157</v>
       </c>
-      <c r="C421">
+      <c r="C421" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6563,7 +6572,7 @@
       <c r="B422" t="s">
         <v>158</v>
       </c>
-      <c r="C422">
+      <c r="C422" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6574,7 +6583,7 @@
       <c r="B423" t="s">
         <v>159</v>
       </c>
-      <c r="C423">
+      <c r="C423" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6585,7 +6594,7 @@
       <c r="B424" t="s">
         <v>160</v>
       </c>
-      <c r="C424">
+      <c r="C424" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6596,7 +6605,7 @@
       <c r="B425" t="s">
         <v>161</v>
       </c>
-      <c r="C425">
+      <c r="C425" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6607,7 +6616,7 @@
       <c r="B426" t="s">
         <v>162</v>
       </c>
-      <c r="C426">
+      <c r="C426" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6618,7 +6627,7 @@
       <c r="B427" t="s">
         <v>163</v>
       </c>
-      <c r="C427">
+      <c r="C427" s="1">
         <v>6491988</v>
       </c>
     </row>
@@ -6629,7 +6638,7 @@
       <c r="B428" t="s">
         <v>164</v>
       </c>
-      <c r="C428">
+      <c r="C428" s="1">
         <v>2000</v>
       </c>
     </row>
@@ -6640,7 +6649,7 @@
       <c r="B429" t="s">
         <v>165</v>
       </c>
-      <c r="C429">
+      <c r="C429" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6651,7 +6660,7 @@
       <c r="B430" t="s">
         <v>271</v>
       </c>
-      <c r="C430">
+      <c r="C430" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6662,7 +6671,7 @@
       <c r="B431" t="s">
         <v>272</v>
       </c>
-      <c r="C431">
+      <c r="C431" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6673,7 +6682,7 @@
       <c r="B432" t="s">
         <v>325</v>
       </c>
-      <c r="C432">
+      <c r="C432" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6684,7 +6693,7 @@
       <c r="B433" t="s">
         <v>326</v>
       </c>
-      <c r="C433">
+      <c r="C433" s="1">
         <v>448700</v>
       </c>
     </row>
@@ -6695,7 +6704,7 @@
       <c r="B434" t="s">
         <v>327</v>
       </c>
-      <c r="C434">
+      <c r="C434" s="1">
         <v>569500</v>
       </c>
     </row>
@@ -6706,7 +6715,7 @@
       <c r="B435" t="s">
         <v>440</v>
       </c>
-      <c r="C435">
+      <c r="C435" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6717,7 +6726,7 @@
       <c r="B436" t="s">
         <v>441</v>
       </c>
-      <c r="C436">
+      <c r="C436" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6728,7 +6737,7 @@
       <c r="B437" t="s">
         <v>442</v>
       </c>
-      <c r="C437">
+      <c r="C437" s="1">
         <v>8103787</v>
       </c>
     </row>
@@ -6739,7 +6748,7 @@
       <c r="B438" t="s">
         <v>443</v>
       </c>
-      <c r="C438">
+      <c r="C438" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6750,7 +6759,7 @@
       <c r="B439" t="s">
         <v>444</v>
       </c>
-      <c r="C439">
+      <c r="C439" s="1">
         <v>2000</v>
       </c>
     </row>
@@ -6761,7 +6770,7 @@
       <c r="B440" t="s">
         <v>445</v>
       </c>
-      <c r="C440">
+      <c r="C440" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6772,7 +6781,7 @@
       <c r="B441" t="s">
         <v>167</v>
       </c>
-      <c r="C441">
+      <c r="C441" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6783,7 +6792,7 @@
       <c r="B442" t="s">
         <v>168</v>
       </c>
-      <c r="C442">
+      <c r="C442" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6794,7 +6803,7 @@
       <c r="B443" t="s">
         <v>273</v>
       </c>
-      <c r="C443">
+      <c r="C443" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6805,7 +6814,7 @@
       <c r="B444" t="s">
         <v>274</v>
       </c>
-      <c r="C444">
+      <c r="C444" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6816,7 +6825,7 @@
       <c r="B445" t="s">
         <v>328</v>
       </c>
-      <c r="C445">
+      <c r="C445" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6827,7 +6836,7 @@
       <c r="B446" t="s">
         <v>329</v>
       </c>
-      <c r="C446">
+      <c r="C446" s="1">
         <v>19200</v>
       </c>
     </row>
@@ -6838,7 +6847,7 @@
       <c r="B447" t="s">
         <v>330</v>
       </c>
-      <c r="C447">
+      <c r="C447" s="1">
         <v>357000</v>
       </c>
     </row>
@@ -6849,7 +6858,7 @@
       <c r="B448" t="s">
         <v>446</v>
       </c>
-      <c r="C448">
+      <c r="C448" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6860,7 +6869,7 @@
       <c r="B449" t="s">
         <v>447</v>
       </c>
-      <c r="C449">
+      <c r="C449" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6871,7 +6880,7 @@
       <c r="B450" t="s">
         <v>448</v>
       </c>
-      <c r="C450">
+      <c r="C450" s="1">
         <v>4000</v>
       </c>
     </row>
